--- a/ceper_rais/rais.xlsx
+++ b/ceper_rais/rais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\CEPER\ceper_rais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B26C44C-55F8-4537-8F52-7AE894E20700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E19675-FCEB-4EB5-A7EA-1758F1C4BB1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +521,14 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -716,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -915,6 +923,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -960,7 +977,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1055,6 +1072,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1073,12 +1096,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1090,6 +1107,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1493,10 +1516,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="7">
         <v>3198.0539571216491</v>
       </c>
@@ -1513,17 +1536,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1545,7 +1568,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
@@ -1565,17 +1588,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1597,7 +1620,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="16" t="s">
         <v>58</v>
       </c>
@@ -1617,7 +1640,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="16" t="s">
         <v>59</v>
       </c>
@@ -1637,7 +1660,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="16" t="s">
         <v>60</v>
       </c>
@@ -1657,7 +1680,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="16" t="s">
         <v>61</v>
       </c>
@@ -1677,7 +1700,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="16" t="s">
         <v>62</v>
       </c>
@@ -1697,7 +1720,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="41"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="12" t="s">
         <v>63</v>
       </c>
@@ -1717,17 +1740,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1749,7 +1772,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="16" t="s">
         <v>66</v>
       </c>
@@ -1769,7 +1792,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="16" t="s">
         <v>67</v>
       </c>
@@ -1789,7 +1812,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="16" t="s">
         <v>68</v>
       </c>
@@ -1809,7 +1832,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
@@ -1829,7 +1852,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="16" t="s">
         <v>70</v>
       </c>
@@ -1849,7 +1872,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="16" t="s">
         <v>71</v>
       </c>
@@ -1869,17 +1892,17 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -1901,7 +1924,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="16" t="s">
         <v>74</v>
       </c>
@@ -1921,7 +1944,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="16" t="s">
         <v>75</v>
       </c>
@@ -1941,7 +1964,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="16" t="s">
         <v>76</v>
       </c>
@@ -1961,7 +1984,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="39"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="20" t="s">
         <v>77</v>
       </c>
@@ -1981,17 +2004,17 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -2013,7 +2036,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="16" t="s">
         <v>80</v>
       </c>
@@ -2033,7 +2056,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="16" t="s">
         <v>81</v>
       </c>
@@ -2053,7 +2076,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="16" t="s">
         <v>82</v>
       </c>
@@ -2073,7 +2096,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="16" t="s">
         <v>83</v>
       </c>
@@ -2093,7 +2116,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="20" t="s">
         <v>84</v>
       </c>
@@ -2131,24 +2154,24 @@
       <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2180,7 +2203,7 @@
   <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,371 +2265,371 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B2" s="31">
-        <v>2357.5674789088898</v>
+        <v>1151.0941935482499</v>
       </c>
       <c r="C2" s="31">
-        <v>1775.6465475271</v>
+        <v>1438.7686344537599</v>
       </c>
       <c r="D2" s="31">
-        <v>1940.30161326805</v>
+        <v>1291.40021608644</v>
       </c>
       <c r="E2" s="31">
-        <v>1879.26863179768</v>
+        <v>1455.1736332179501</v>
       </c>
       <c r="F2" s="31">
-        <v>1974.6331109313201</v>
+        <v>1666.0791850431499</v>
       </c>
       <c r="G2" s="31">
-        <v>1810.8982036528701</v>
+        <v>1443.8712247706201</v>
       </c>
       <c r="H2" s="31">
-        <v>2247.8336050942298</v>
+        <v>1655.60094560927</v>
       </c>
       <c r="I2" s="31">
-        <v>3365.0092513273498</v>
+        <v>1983.94831422009</v>
       </c>
       <c r="J2" s="31">
-        <v>6889.6308376179904</v>
+        <v>3257.9325813406899</v>
       </c>
       <c r="K2" s="31">
-        <v>10418.5389471458</v>
+        <v>3089.66833333368</v>
       </c>
       <c r="L2" s="31">
-        <v>12231.331256367601</v>
+        <v>7712.0528140702399</v>
       </c>
       <c r="M2" s="31">
-        <v>3604.3652013966398</v>
+        <v>1906.52535363369</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B3" s="31">
-        <v>1314.73906367057</v>
+        <v>1502.3509239130999</v>
       </c>
       <c r="C3" s="31">
-        <v>1420.7906120888399</v>
+        <v>1774.2924982746699</v>
       </c>
       <c r="D3" s="31">
-        <v>1489.1775124026101</v>
+        <v>1881.1209904371101</v>
       </c>
       <c r="E3" s="31">
-        <v>1576.33734059732</v>
+        <v>2030.91328602151</v>
       </c>
       <c r="F3" s="31">
-        <v>1585.06441036723</v>
+        <v>2105.88659049122</v>
       </c>
       <c r="G3" s="31">
-        <v>1509.0818593520501</v>
+        <v>1881.9147636662699</v>
       </c>
       <c r="H3" s="31">
-        <v>1821.6164643053701</v>
+        <v>2079.1835879267501</v>
       </c>
       <c r="I3" s="31">
-        <v>2712.0911659192798</v>
+        <v>2500.8052361809</v>
       </c>
       <c r="J3" s="31">
-        <v>4119.1212332901996</v>
+        <v>4249.7060251882303</v>
       </c>
       <c r="K3" s="31">
-        <v>3115.1912574851899</v>
+        <v>2777.0333744856098</v>
       </c>
       <c r="L3" s="31">
-        <v>2896.2393203885899</v>
+        <v>3713.1666666664601</v>
       </c>
       <c r="M3" s="31">
-        <v>2111.7032118348102</v>
+        <v>2405.5477907315799</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B4" s="31">
-        <v>1620.42302325582</v>
+        <v>1413.9217187499901</v>
       </c>
       <c r="C4" s="31">
-        <v>1864.7103799132201</v>
+        <v>1585.7244282982699</v>
       </c>
       <c r="D4" s="31">
-        <v>2057.2855444510901</v>
+        <v>1765.6431446945301</v>
       </c>
       <c r="E4" s="31">
-        <v>2145.6560287664602</v>
+        <v>1770.30004347827</v>
       </c>
       <c r="F4" s="31">
-        <v>2032.2259773266401</v>
+        <v>1752.44458388726</v>
       </c>
       <c r="G4" s="31">
-        <v>1839.88610091337</v>
+        <v>1620.78253480278</v>
       </c>
       <c r="H4" s="31">
-        <v>2227.2799289299201</v>
+        <v>1937.41989456892</v>
       </c>
       <c r="I4" s="31">
-        <v>2746.2238746867201</v>
+        <v>2267.2995587251899</v>
       </c>
       <c r="J4" s="31">
-        <v>5033.7809804847302</v>
+        <v>3873.99211117916</v>
       </c>
       <c r="K4" s="31">
-        <v>7648.9910672299802</v>
+        <v>4324.0186578450302</v>
       </c>
       <c r="L4" s="31">
-        <v>6910.1359485095099</v>
+        <v>5588.4386413042403</v>
       </c>
       <c r="M4" s="31">
-        <v>2803.0784946387698</v>
+        <v>2228.6354126820702</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B5" s="31">
-        <v>1725.1712499999101</v>
+        <v>1355.4452436194899</v>
       </c>
       <c r="C5" s="31">
-        <v>2379.4727894380799</v>
+        <v>1637.3931873614499</v>
       </c>
       <c r="D5" s="31">
-        <v>2311.2698805731502</v>
+        <v>1776.23136501519</v>
       </c>
       <c r="E5" s="31">
-        <v>2207.3840323147001</v>
+        <v>1740.2098852925701</v>
       </c>
       <c r="F5" s="31">
-        <v>2092.4328246249402</v>
+        <v>1858.1207646118901</v>
       </c>
       <c r="G5" s="31">
-        <v>1828.5129986818999</v>
+        <v>1783.1903874612101</v>
       </c>
       <c r="H5" s="31">
-        <v>2060.8877466276399</v>
+        <v>2122.44485579294</v>
       </c>
       <c r="I5" s="31">
-        <v>2490.4675039577601</v>
+        <v>2818.7784054431099</v>
       </c>
       <c r="J5" s="31">
-        <v>5059.3381942544602</v>
+        <v>4732.4561088748396</v>
       </c>
       <c r="K5" s="31">
-        <v>4209.90839805822</v>
+        <v>5055.20786713291</v>
       </c>
       <c r="L5" s="31">
-        <v>6470.1992307696501</v>
+        <v>4491.6781126174301</v>
       </c>
       <c r="M5" s="31">
-        <v>2524.1047059846901</v>
+        <v>2438.46629424506</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B6" s="31">
-        <v>1375.6237209303699</v>
+        <v>1634.59481481487</v>
       </c>
       <c r="C6" s="31">
-        <v>1592.58370588249</v>
+        <v>1418.03861491629</v>
       </c>
       <c r="D6" s="31">
-        <v>1591.8958203593199</v>
+        <v>2098.9939949957902</v>
       </c>
       <c r="E6" s="31">
-        <v>1710.2803188406399</v>
+        <v>2111.9784683016901</v>
       </c>
       <c r="F6" s="31">
-        <v>2036.1571283211499</v>
+        <v>2098.6086096759</v>
       </c>
       <c r="G6" s="31">
-        <v>2014.52848792891</v>
+        <v>1791.75536241392</v>
       </c>
       <c r="H6" s="31">
-        <v>2527.7984414289899</v>
+        <v>2019.6427491611701</v>
       </c>
       <c r="I6" s="31">
-        <v>3437.8401813784899</v>
+        <v>2505.9474536760999</v>
       </c>
       <c r="J6" s="31">
-        <v>4621.9588719018602</v>
+        <v>4211.8820510545702</v>
       </c>
       <c r="K6" s="31">
-        <v>3057.10424242405</v>
+        <v>5046.8761111112099</v>
       </c>
       <c r="L6" s="31">
-        <v>4822.1995999996398</v>
+        <v>5263.3851807227302</v>
       </c>
       <c r="M6" s="31">
-        <v>2822.2780998867102</v>
+        <v>2426.4077039301201</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="31">
-        <v>1226.25241610743</v>
+        <v>955.42615131582602</v>
       </c>
       <c r="C7" s="31">
-        <v>1504.3759734513501</v>
+        <v>1601.35827656124</v>
       </c>
       <c r="D7" s="31">
-        <v>1659.46089820365</v>
+        <v>1776.2697151789</v>
       </c>
       <c r="E7" s="31">
-        <v>1811.7516813417301</v>
+        <v>1656.4648449875399</v>
       </c>
       <c r="F7" s="31">
-        <v>1737.26000794783</v>
+        <v>1735.22423037865</v>
       </c>
       <c r="G7" s="31">
-        <v>1488.9501849763301</v>
+        <v>1623.70767000001</v>
       </c>
       <c r="H7" s="31">
-        <v>2096.2052686728098</v>
+        <v>1791.98189877716</v>
       </c>
       <c r="I7" s="31">
-        <v>2767.0723503435001</v>
+        <v>2161.1988526912501</v>
       </c>
       <c r="J7" s="31">
-        <v>4550.5038593821</v>
+        <v>3725.0810328693301</v>
       </c>
       <c r="K7" s="31">
-        <v>4771.0268146214203</v>
+        <v>3161.31997946613</v>
       </c>
       <c r="L7" s="31">
-        <v>7683.6831343280901</v>
+        <v>3286.45485294121</v>
       </c>
       <c r="M7" s="31">
-        <v>2490.8297917970699</v>
+        <v>2016.3726200132701</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" s="31">
-        <v>1686.3195454545901</v>
+        <v>1554.88857425739</v>
       </c>
       <c r="C8" s="31">
-        <v>1907.6185289027201</v>
+        <v>1668.0122706422001</v>
       </c>
       <c r="D8" s="31">
-        <v>1949.1640403669501</v>
+        <v>1696.5711775701</v>
       </c>
       <c r="E8" s="31">
-        <v>1923.52713795465</v>
+        <v>1765.5919769357499</v>
       </c>
       <c r="F8" s="31">
-        <v>2120.1802076211802</v>
+        <v>1814.3473565341001</v>
       </c>
       <c r="G8" s="31">
-        <v>1783.9413821933599</v>
+        <v>1658.05878175577</v>
       </c>
       <c r="H8" s="31">
-        <v>2337.6565718193101</v>
+        <v>2063.8052084041001</v>
       </c>
       <c r="I8" s="31">
-        <v>3067.4339752747201</v>
+        <v>2563.9874020658799</v>
       </c>
       <c r="J8" s="31">
-        <v>5744.9627307953597</v>
+        <v>4541.6167939706702</v>
       </c>
       <c r="K8" s="31">
-        <v>7852.6253932583904</v>
+        <v>5104.3994894366697</v>
       </c>
       <c r="L8" s="31">
-        <v>9502.1621028036097</v>
+        <v>8236.7229047615092</v>
       </c>
       <c r="M8" s="31">
-        <v>3089.1159835879298</v>
+        <v>2414.3225018007101</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B9" s="31">
-        <v>1598.01915789481</v>
+        <v>1463.05921535893</v>
       </c>
       <c r="C9" s="31">
-        <v>1843.6215341545301</v>
+        <v>1679.40894362023</v>
       </c>
       <c r="D9" s="31">
-        <v>1782.3304705882399</v>
+        <v>1798.5304498318401</v>
       </c>
       <c r="E9" s="31">
-        <v>1911.7674239350799</v>
+        <v>2111.8412601140799</v>
       </c>
       <c r="F9" s="31">
-        <v>1978.4600793119901</v>
+        <v>1933.4721993210501</v>
       </c>
       <c r="G9" s="31">
-        <v>1686.0716798051001</v>
+        <v>1890.74604887696</v>
       </c>
       <c r="H9" s="31">
-        <v>2272.9486473593902</v>
+        <v>2057.69461514153</v>
       </c>
       <c r="I9" s="31">
-        <v>3115.5587394643599</v>
+        <v>2605.80930952379</v>
       </c>
       <c r="J9" s="31">
-        <v>4620.3157100580602</v>
+        <v>4301.7838827201704</v>
       </c>
       <c r="K9" s="31">
-        <v>6171.0638009049599</v>
+        <v>4332.66645472044</v>
       </c>
       <c r="L9" s="31">
-        <v>7418.83918495321</v>
+        <v>6014.7729716980502</v>
       </c>
       <c r="M9" s="31">
-        <v>2714.6068168459601</v>
+        <v>2363.9037649986399</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B10" s="31">
-        <v>955.42615131582602</v>
+        <v>1284.37171919772</v>
       </c>
       <c r="C10" s="31">
-        <v>1601.35827656124</v>
+        <v>1844.8012414360001</v>
       </c>
       <c r="D10" s="31">
-        <v>1776.2697151789</v>
+        <v>1817.6735939776299</v>
       </c>
       <c r="E10" s="31">
-        <v>1656.4648449875399</v>
+        <v>1993.43296187292</v>
       </c>
       <c r="F10" s="31">
-        <v>1735.22423037865</v>
+        <v>1963.39254313058</v>
       </c>
       <c r="G10" s="31">
-        <v>1623.70767000001</v>
+        <v>1580.71185943419</v>
       </c>
       <c r="H10" s="31">
-        <v>1791.98189877716</v>
+        <v>2027.38874610367</v>
       </c>
       <c r="I10" s="31">
-        <v>2161.1988526912501</v>
+        <v>2595.9754719031698</v>
       </c>
       <c r="J10" s="31">
-        <v>3725.0810328693301</v>
+        <v>4812.0256750076496</v>
       </c>
       <c r="K10" s="31">
-        <v>3161.31997946613</v>
+        <v>5395.7900295275103</v>
       </c>
       <c r="L10" s="31">
-        <v>3286.45485294121</v>
+        <v>9016.3649255950495</v>
       </c>
       <c r="M10" s="31">
-        <v>2016.3726200132701</v>
+        <v>2511.3129363533899</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2652,1355 +2675,1355 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="31">
-        <v>1796.91692946066</v>
+        <v>1601.7718240343499</v>
       </c>
       <c r="C12" s="31">
-        <v>1664.9044619666299</v>
+        <v>1870.3833027912799</v>
       </c>
       <c r="D12" s="31">
-        <v>1740.0722784121799</v>
+        <v>1946.4578247069001</v>
       </c>
       <c r="E12" s="31">
-        <v>1776.20395908763</v>
+        <v>1985.4936841382701</v>
       </c>
       <c r="F12" s="31">
-        <v>1842.6112852168401</v>
+        <v>2088.65476123799</v>
       </c>
       <c r="G12" s="31">
-        <v>1749.12710921295</v>
+        <v>1886.0429752918801</v>
       </c>
       <c r="H12" s="31">
-        <v>1957.9701187087801</v>
+        <v>2440.0589588316798</v>
       </c>
       <c r="I12" s="31">
-        <v>2732.3406332992899</v>
+        <v>3450.7057501005202</v>
       </c>
       <c r="J12" s="31">
-        <v>4419.4680435024402</v>
+        <v>6506.0994603270701</v>
       </c>
       <c r="K12" s="31">
-        <v>3470.21820588235</v>
+        <v>9037.3556669921109</v>
       </c>
       <c r="L12" s="31">
-        <v>3923.0919047615698</v>
+        <v>10709.3957731962</v>
       </c>
       <c r="M12" s="31">
-        <v>2292.0690740263499</v>
+        <v>3345.8052687506101</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B13" s="31">
-        <v>1367.63596590922</v>
+        <v>1725.1712499999101</v>
       </c>
       <c r="C13" s="31">
-        <v>1586.5781818181699</v>
+        <v>2379.4727894380799</v>
       </c>
       <c r="D13" s="31">
-        <v>1665.49314071459</v>
+        <v>2311.2698805731502</v>
       </c>
       <c r="E13" s="31">
-        <v>1530.85882891814</v>
+        <v>2207.3840323147001</v>
       </c>
       <c r="F13" s="31">
-        <v>1536.7515161353899</v>
+        <v>2092.4328246249402</v>
       </c>
       <c r="G13" s="31">
-        <v>1490.32808927728</v>
+        <v>1828.5129986818999</v>
       </c>
       <c r="H13" s="31">
-        <v>1772.2365411001699</v>
+        <v>2060.8877466276399</v>
       </c>
       <c r="I13" s="31">
-        <v>2432.40795634919</v>
+        <v>2490.4675039577601</v>
       </c>
       <c r="J13" s="31">
-        <v>3342.5069971780199</v>
+        <v>5059.3381942544602</v>
       </c>
       <c r="K13" s="31">
-        <v>3295.97599078352</v>
+        <v>4209.90839805822</v>
       </c>
       <c r="L13" s="31">
-        <v>4664.90777777736</v>
+        <v>6470.1992307696501</v>
       </c>
       <c r="M13" s="31">
-        <v>1900.03340166772</v>
+        <v>2524.1047059846901</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14" s="31">
-        <v>1619.2992454835301</v>
+        <v>1495.9790374331401</v>
       </c>
       <c r="C14" s="31">
-        <v>1736.1241732650201</v>
+        <v>1718.53926783005</v>
       </c>
       <c r="D14" s="31">
-        <v>1866.7824950690399</v>
+        <v>2135.6694174422701</v>
       </c>
       <c r="E14" s="31">
-        <v>1915.4318379527999</v>
+        <v>2289.9705248694399</v>
       </c>
       <c r="F14" s="31">
-        <v>1901.8250139054201</v>
+        <v>2066.68682897384</v>
       </c>
       <c r="G14" s="31">
-        <v>1854.1829443838601</v>
+        <v>1935.5152550505099</v>
       </c>
       <c r="H14" s="31">
-        <v>2260.1461335447998</v>
+        <v>2126.3292721519001</v>
       </c>
       <c r="I14" s="31">
-        <v>2975.89333981755</v>
+        <v>2594.3191519674501</v>
       </c>
       <c r="J14" s="31">
-        <v>5358.8071288919</v>
+        <v>4078.4611581007398</v>
       </c>
       <c r="K14" s="31">
-        <v>6771.57107094816</v>
+        <v>5274.5325688074099</v>
       </c>
       <c r="L14" s="31">
-        <v>7256.1457496560997</v>
+        <v>6382.2396666669902</v>
       </c>
       <c r="M14" s="31">
-        <v>2787.28185709013</v>
+        <v>2435.1542732210401</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B15" s="31">
-        <v>1554.88857425739</v>
+        <v>1375.6237209303699</v>
       </c>
       <c r="C15" s="31">
-        <v>1668.0122706422001</v>
+        <v>1592.58370588249</v>
       </c>
       <c r="D15" s="31">
-        <v>1696.5711775701</v>
+        <v>1591.8958203593199</v>
       </c>
       <c r="E15" s="31">
-        <v>1765.5919769357499</v>
+        <v>1710.2803188406399</v>
       </c>
       <c r="F15" s="31">
-        <v>1814.3473565341001</v>
+        <v>2036.1571283211499</v>
       </c>
       <c r="G15" s="31">
-        <v>1658.05878175577</v>
+        <v>2014.52848792891</v>
       </c>
       <c r="H15" s="31">
-        <v>2063.8052084041001</v>
+        <v>2527.7984414289899</v>
       </c>
       <c r="I15" s="31">
-        <v>2563.9874020658799</v>
+        <v>3437.8401813784899</v>
       </c>
       <c r="J15" s="31">
-        <v>4541.6167939706702</v>
+        <v>4621.9588719018602</v>
       </c>
       <c r="K15" s="31">
-        <v>5104.3994894366697</v>
+        <v>3057.10424242405</v>
       </c>
       <c r="L15" s="31">
-        <v>8236.7229047615092</v>
+        <v>4822.1995999996398</v>
       </c>
       <c r="M15" s="31">
-        <v>2414.3225018007101</v>
+        <v>2822.2780998867102</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B16" s="31">
-        <v>1601.7718240343499</v>
+        <v>1631.47159090888</v>
       </c>
       <c r="C16" s="31">
-        <v>1870.3833027912799</v>
+        <v>1955.7938543897501</v>
       </c>
       <c r="D16" s="31">
-        <v>1946.4578247069001</v>
+        <v>1936.0957068062601</v>
       </c>
       <c r="E16" s="31">
-        <v>1985.4936841382701</v>
+        <v>1959.2840547703299</v>
       </c>
       <c r="F16" s="31">
-        <v>2088.65476123799</v>
+        <v>1830.15524978087</v>
       </c>
       <c r="G16" s="31">
-        <v>1886.0429752918801</v>
+        <v>1711.2496232686799</v>
       </c>
       <c r="H16" s="31">
-        <v>2440.0589588316798</v>
+        <v>1851.5385398406499</v>
       </c>
       <c r="I16" s="31">
-        <v>3450.7057501005202</v>
+        <v>1934.1346987951999</v>
       </c>
       <c r="J16" s="31">
-        <v>6506.0994603270701</v>
+        <v>3446.44130991163</v>
       </c>
       <c r="K16" s="31">
-        <v>9037.3556669921109</v>
+        <v>3179.70999999994</v>
       </c>
       <c r="L16" s="31">
-        <v>10709.3957731962</v>
+        <v>6681.0502564107601</v>
       </c>
       <c r="M16" s="31">
-        <v>3345.8052687506101</v>
+        <v>2125.9339885632698</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B17" s="31">
-        <v>1720.7892844036601</v>
+        <v>1445.34893333331</v>
       </c>
       <c r="C17" s="31">
-        <v>1799.0638436715701</v>
+        <v>1647.65822085889</v>
       </c>
       <c r="D17" s="31">
-        <v>2127.6006327189898</v>
+        <v>1890.6328301886799</v>
       </c>
       <c r="E17" s="31">
-        <v>2065.4772154175398</v>
+        <v>1905.7550831353601</v>
       </c>
       <c r="F17" s="31">
-        <v>2228.4525405384202</v>
+        <v>1829.6338347964399</v>
       </c>
       <c r="G17" s="31">
-        <v>1926.4037394208101</v>
+        <v>1728.03937248997</v>
       </c>
       <c r="H17" s="31">
-        <v>2429.8879092861698</v>
+        <v>1997.0755222934199</v>
       </c>
       <c r="I17" s="31">
-        <v>3197.3117693736299</v>
+        <v>2021.1023797467799</v>
       </c>
       <c r="J17" s="31">
-        <v>5989.5595699724599</v>
+        <v>3577.7836242138501</v>
       </c>
       <c r="K17" s="31">
-        <v>5774.9302023987902</v>
+        <v>3215.07883928615</v>
       </c>
       <c r="L17" s="31">
-        <v>7312.5594067798302</v>
+        <v>5753.0633333329497</v>
       </c>
       <c r="M17" s="31">
-        <v>3084.3460705079701</v>
+        <v>2236.2429408829998</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B18" s="31">
-        <v>1511.17166666664</v>
+        <v>1414.6756875000201</v>
       </c>
       <c r="C18" s="31">
-        <v>1938.8020455512899</v>
+        <v>1729.7751448736999</v>
       </c>
       <c r="D18" s="31">
-        <v>2159.9145417075401</v>
+        <v>1752.39426903553</v>
       </c>
       <c r="E18" s="31">
-        <v>2146.4563635210402</v>
+        <v>1940.0305571108599</v>
       </c>
       <c r="F18" s="31">
-        <v>2163.4830609666101</v>
+        <v>1819.4231545180501</v>
       </c>
       <c r="G18" s="31">
-        <v>1914.4900790586501</v>
+        <v>1683.6263646386701</v>
       </c>
       <c r="H18" s="31">
-        <v>2323.1366476684302</v>
+        <v>1897.3771550562401</v>
       </c>
       <c r="I18" s="31">
-        <v>2673.2302171553101</v>
+        <v>2275.8102494062</v>
       </c>
       <c r="J18" s="31">
-        <v>4906.2952703383799</v>
+        <v>3842.8802721028301</v>
       </c>
       <c r="K18" s="31">
-        <v>4922.8234037367301</v>
+        <v>4991.9841584157302</v>
       </c>
       <c r="L18" s="31">
-        <v>7377.4167084639703</v>
+        <v>7552.5611042944702</v>
       </c>
       <c r="M18" s="31">
-        <v>2734.7837968014501</v>
+        <v>2234.60192039514</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B19" s="31">
-        <v>1705.83487804878</v>
+        <v>1226.25241610743</v>
       </c>
       <c r="C19" s="31">
-        <v>1904.2727542108501</v>
+        <v>1504.3759734513501</v>
       </c>
       <c r="D19" s="31">
-        <v>2125.9909043364401</v>
+        <v>1659.46089820365</v>
       </c>
       <c r="E19" s="31">
-        <v>2130.1059757302301</v>
+        <v>1811.7516813417301</v>
       </c>
       <c r="F19" s="31">
-        <v>2260.85699392268</v>
+        <v>1737.26000794783</v>
       </c>
       <c r="G19" s="31">
-        <v>2022.4869090355801</v>
+        <v>1488.9501849763301</v>
       </c>
       <c r="H19" s="31">
-        <v>2492.0918541662099</v>
+        <v>2096.2052686728098</v>
       </c>
       <c r="I19" s="31">
-        <v>3181.6949537671399</v>
+        <v>2767.0723503435001</v>
       </c>
       <c r="J19" s="31">
-        <v>5301.4443162177704</v>
+        <v>4550.5038593821</v>
       </c>
       <c r="K19" s="31">
-        <v>6469.5073827699598</v>
+        <v>4771.0268146214203</v>
       </c>
       <c r="L19" s="31">
-        <v>11531.1660269359</v>
+        <v>7683.6831343280901</v>
       </c>
       <c r="M19" s="31">
-        <v>2976.6848896291799</v>
+        <v>2490.8297917970699</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B20" s="31">
-        <v>1559.5595197740899</v>
+        <v>1796.91692946066</v>
       </c>
       <c r="C20" s="31">
-        <v>1850.3598532681301</v>
+        <v>1664.9044619666299</v>
       </c>
       <c r="D20" s="31">
-        <v>2148.8966871746102</v>
+        <v>1740.0722784121799</v>
       </c>
       <c r="E20" s="31">
-        <v>2273.9650104004299</v>
+        <v>1776.20395908763</v>
       </c>
       <c r="F20" s="31">
-        <v>2306.5639191765399</v>
+        <v>1842.6112852168401</v>
       </c>
       <c r="G20" s="31">
-        <v>1970.0844999032699</v>
+        <v>1749.12710921295</v>
       </c>
       <c r="H20" s="31">
-        <v>2445.6319941234601</v>
+        <v>1957.9701187087801</v>
       </c>
       <c r="I20" s="31">
-        <v>2863.09655737705</v>
+        <v>2732.3406332992899</v>
       </c>
       <c r="J20" s="31">
-        <v>5087.1606528970597</v>
+        <v>4419.4680435024402</v>
       </c>
       <c r="K20" s="31">
-        <v>6478.4288466756598</v>
+        <v>3470.21820588235</v>
       </c>
       <c r="L20" s="31">
-        <v>7680.7322608694303</v>
+        <v>3923.0919047615698</v>
       </c>
       <c r="M20" s="31">
-        <v>2839.7355402938701</v>
+        <v>2292.0690740263499</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B21" s="31">
-        <v>1371.4161403508799</v>
+        <v>1367.63596590922</v>
       </c>
       <c r="C21" s="31">
-        <v>1658.13246472021</v>
+        <v>1586.5781818181699</v>
       </c>
       <c r="D21" s="31">
-        <v>1809.4662483208799</v>
+        <v>1665.49314071459</v>
       </c>
       <c r="E21" s="31">
-        <v>1835.2102276882099</v>
+        <v>1530.85882891814</v>
       </c>
       <c r="F21" s="31">
-        <v>1935.4299851042699</v>
+        <v>1536.7515161353899</v>
       </c>
       <c r="G21" s="31">
-        <v>1796.6011579378201</v>
+        <v>1490.32808927728</v>
       </c>
       <c r="H21" s="31">
-        <v>1983.0125775909401</v>
+        <v>1772.2365411001699</v>
       </c>
       <c r="I21" s="31">
-        <v>2241.8150887752099</v>
+        <v>2432.40795634919</v>
       </c>
       <c r="J21" s="31">
-        <v>3597.2241424134399</v>
+        <v>3342.5069971780199</v>
       </c>
       <c r="K21" s="31">
-        <v>2897.5798423422898</v>
+        <v>3295.97599078352</v>
       </c>
       <c r="L21" s="31">
-        <v>4081.4650543480102</v>
+        <v>4664.90777777736</v>
       </c>
       <c r="M21" s="31">
-        <v>2199.1851267648099</v>
+        <v>1900.03340166772</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22" s="31">
-        <v>1737.5585770363</v>
+        <v>1582.2796932516001</v>
       </c>
       <c r="C22" s="31">
-        <v>1818.1073892797001</v>
+        <v>1695.9680048661601</v>
       </c>
       <c r="D22" s="31">
-        <v>2271.9022456368898</v>
+        <v>1768.8804054054101</v>
       </c>
       <c r="E22" s="31">
-        <v>2123.1897634419802</v>
+        <v>1826.3907209302799</v>
       </c>
       <c r="F22" s="31">
-        <v>2010.18964072316</v>
+        <v>1859.9454462051999</v>
       </c>
       <c r="G22" s="31">
-        <v>1877.5677166411001</v>
+        <v>1606.2963488943501</v>
       </c>
       <c r="H22" s="31">
-        <v>2163.8436158641798</v>
+        <v>1808.48467689823</v>
       </c>
       <c r="I22" s="31">
-        <v>2799.3768339663602</v>
+        <v>1973.0051805728499</v>
       </c>
       <c r="J22" s="31">
-        <v>4887.6313916094496</v>
+        <v>3037.3886363636302</v>
       </c>
       <c r="K22" s="31">
-        <v>6792.8281160799397</v>
+        <v>3522.0794475140601</v>
       </c>
       <c r="L22" s="31">
-        <v>11948.991381100501</v>
+        <v>4158.7378160920098</v>
       </c>
       <c r="M22" s="31">
-        <v>2696.86973125035</v>
+        <v>2050.3685176822501</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="31">
-        <v>1284.37171919772</v>
+        <v>1210.4841949152101</v>
       </c>
       <c r="C23" s="31">
-        <v>1844.8012414360001</v>
+        <v>1533.79402784683</v>
       </c>
       <c r="D23" s="31">
-        <v>1817.6735939776299</v>
+        <v>1825.0539065646699</v>
       </c>
       <c r="E23" s="31">
-        <v>1993.43296187292</v>
+        <v>1954.5723555776699</v>
       </c>
       <c r="F23" s="31">
-        <v>1963.39254313058</v>
+        <v>1891.21452924394</v>
       </c>
       <c r="G23" s="31">
-        <v>1580.71185943419</v>
+        <v>1735.98744929655</v>
       </c>
       <c r="H23" s="31">
-        <v>2027.38874610367</v>
+        <v>2026.69503423386</v>
       </c>
       <c r="I23" s="31">
-        <v>2595.9754719031698</v>
+        <v>2345.54141895147</v>
       </c>
       <c r="J23" s="31">
-        <v>4812.0256750076496</v>
+        <v>3475.63892372485</v>
       </c>
       <c r="K23" s="31">
-        <v>5395.7900295275103</v>
+        <v>4445.8610544612102</v>
       </c>
       <c r="L23" s="31">
-        <v>9016.3649255950495</v>
+        <v>4291.0682352941903</v>
       </c>
       <c r="M23" s="31">
-        <v>2511.3129363533899</v>
+        <v>2199.86854241525</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B24" s="31">
-        <v>1210.4841949152101</v>
+        <v>1720.7892844036601</v>
       </c>
       <c r="C24" s="31">
-        <v>1533.79402784683</v>
+        <v>1799.0638436715701</v>
       </c>
       <c r="D24" s="31">
-        <v>1825.0539065646699</v>
+        <v>2127.6006327189898</v>
       </c>
       <c r="E24" s="31">
-        <v>1954.5723555776699</v>
+        <v>2065.4772154175398</v>
       </c>
       <c r="F24" s="31">
-        <v>1891.21452924394</v>
+        <v>2228.4525405384202</v>
       </c>
       <c r="G24" s="31">
-        <v>1735.98744929655</v>
+        <v>1926.4037394208101</v>
       </c>
       <c r="H24" s="31">
-        <v>2026.69503423386</v>
+        <v>2429.8879092861698</v>
       </c>
       <c r="I24" s="31">
-        <v>2345.54141895147</v>
+        <v>3197.3117693736299</v>
       </c>
       <c r="J24" s="31">
-        <v>3475.63892372485</v>
+        <v>5989.5595699724599</v>
       </c>
       <c r="K24" s="31">
-        <v>4445.8610544612102</v>
+        <v>5774.9302023987902</v>
       </c>
       <c r="L24" s="31">
-        <v>4291.0682352941903</v>
+        <v>7312.5594067798302</v>
       </c>
       <c r="M24" s="31">
-        <v>2199.86854241525</v>
+        <v>3084.3460705079701</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B25" s="31">
-        <v>1491.89730337079</v>
+        <v>1511.17166666664</v>
       </c>
       <c r="C25" s="31">
-        <v>1981.87728640516</v>
+        <v>1938.8020455512899</v>
       </c>
       <c r="D25" s="31">
-        <v>1908.8484289277001</v>
+        <v>2159.9145417075401</v>
       </c>
       <c r="E25" s="31">
-        <v>1917.24700897306</v>
+        <v>2146.4563635210402</v>
       </c>
       <c r="F25" s="31">
-        <v>2020.4122337497299</v>
+        <v>2163.4830609666101</v>
       </c>
       <c r="G25" s="31">
-        <v>1750.3060393258399</v>
+        <v>1914.4900790586501</v>
       </c>
       <c r="H25" s="31">
-        <v>2016.5173897781301</v>
+        <v>2323.1366476684302</v>
       </c>
       <c r="I25" s="31">
-        <v>2488.9881155302701</v>
+        <v>2673.2302171553101</v>
       </c>
       <c r="J25" s="31">
-        <v>4371.1769625633797</v>
+        <v>4906.2952703383799</v>
       </c>
       <c r="K25" s="31">
-        <v>4921.5227368419801</v>
+        <v>4922.8234037367301</v>
       </c>
       <c r="L25" s="31">
-        <v>5100.7266666670603</v>
+        <v>7377.4167084639703</v>
       </c>
       <c r="M25" s="31">
-        <v>2340.2828577976302</v>
+        <v>2734.7837968014501</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="31">
-        <v>1495.9790374331401</v>
+        <v>1491.89730337079</v>
       </c>
       <c r="C26" s="31">
-        <v>1718.53926783005</v>
+        <v>1981.87728640516</v>
       </c>
       <c r="D26" s="31">
-        <v>2135.6694174422701</v>
+        <v>1908.8484289277001</v>
       </c>
       <c r="E26" s="31">
-        <v>2289.9705248694399</v>
+        <v>1917.24700897306</v>
       </c>
       <c r="F26" s="31">
-        <v>2066.68682897384</v>
+        <v>2020.4122337497299</v>
       </c>
       <c r="G26" s="31">
-        <v>1935.5152550505099</v>
+        <v>1750.3060393258399</v>
       </c>
       <c r="H26" s="31">
-        <v>2126.3292721519001</v>
+        <v>2016.5173897781301</v>
       </c>
       <c r="I26" s="31">
-        <v>2594.3191519674501</v>
+        <v>2488.9881155302701</v>
       </c>
       <c r="J26" s="31">
-        <v>4078.4611581007398</v>
+        <v>4371.1769625633797</v>
       </c>
       <c r="K26" s="31">
-        <v>5274.5325688074099</v>
+        <v>4921.5227368419801</v>
       </c>
       <c r="L26" s="31">
-        <v>6382.2396666669902</v>
+        <v>5100.7266666670603</v>
       </c>
       <c r="M26" s="31">
-        <v>2435.1542732210401</v>
+        <v>2340.2828577976302</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B27" s="31">
-        <v>1445.34893333331</v>
+        <v>1582.89530303027</v>
       </c>
       <c r="C27" s="31">
-        <v>1647.65822085889</v>
+        <v>1899.8376003210501</v>
       </c>
       <c r="D27" s="31">
-        <v>1890.6328301886799</v>
+        <v>1851.37416996049</v>
       </c>
       <c r="E27" s="31">
-        <v>1905.7550831353601</v>
+        <v>1558.34777156313</v>
       </c>
       <c r="F27" s="31">
-        <v>1829.6338347964399</v>
+        <v>1719.1622217274901</v>
       </c>
       <c r="G27" s="31">
-        <v>1728.03937248997</v>
+        <v>1574.6867529840299</v>
       </c>
       <c r="H27" s="31">
-        <v>1997.0755222934199</v>
+        <v>1968.59129203572</v>
       </c>
       <c r="I27" s="31">
-        <v>2021.1023797467799</v>
+        <v>2483.6396042962101</v>
       </c>
       <c r="J27" s="31">
-        <v>3577.7836242138501</v>
+        <v>4535.9728996882304</v>
       </c>
       <c r="K27" s="31">
-        <v>3215.07883928615</v>
+        <v>6422.31050651231</v>
       </c>
       <c r="L27" s="31">
-        <v>5753.0633333329497</v>
+        <v>10697.391637631001</v>
       </c>
       <c r="M27" s="31">
-        <v>2236.2429408829998</v>
+        <v>2473.5268494399402</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B28" s="31">
-        <v>1582.2796932516001</v>
+        <v>1330.0798666666899</v>
       </c>
       <c r="C28" s="31">
-        <v>1695.9680048661601</v>
+        <v>1690.40581433226</v>
       </c>
       <c r="D28" s="31">
-        <v>1768.8804054054101</v>
+        <v>1983.1698132004899</v>
       </c>
       <c r="E28" s="31">
-        <v>1826.3907209302799</v>
+        <v>1869.60167474422</v>
       </c>
       <c r="F28" s="31">
-        <v>1859.9454462051999</v>
+        <v>1972.6284947111601</v>
       </c>
       <c r="G28" s="31">
-        <v>1606.2963488943501</v>
+        <v>1720.1497076161399</v>
       </c>
       <c r="H28" s="31">
-        <v>1808.48467689823</v>
+        <v>2065.12117056856</v>
       </c>
       <c r="I28" s="31">
-        <v>1973.0051805728499</v>
+        <v>2301.8894946659102</v>
       </c>
       <c r="J28" s="31">
-        <v>3037.3886363636302</v>
+        <v>3960.4213296554899</v>
       </c>
       <c r="K28" s="31">
-        <v>3522.0794475140601</v>
+        <v>4486.5759441707596</v>
       </c>
       <c r="L28" s="31">
-        <v>4158.7378160920098</v>
+        <v>4536.1943157895603</v>
       </c>
       <c r="M28" s="31">
-        <v>2050.3685176822501</v>
+        <v>2338.03652180883</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B29" s="31">
-        <v>1321.8821396396199</v>
+        <v>1705.83487804878</v>
       </c>
       <c r="C29" s="31">
-        <v>1830.66253342398</v>
+        <v>1904.2727542108501</v>
       </c>
       <c r="D29" s="31">
-        <v>2042.44745306861</v>
+        <v>2125.9909043364401</v>
       </c>
       <c r="E29" s="31">
-        <v>2005.0346663933501</v>
+        <v>2130.1059757302301</v>
       </c>
       <c r="F29" s="31">
-        <v>2013.40361187747</v>
+        <v>2260.85699392268</v>
       </c>
       <c r="G29" s="31">
-        <v>1888.99600512549</v>
+        <v>2022.4869090355801</v>
       </c>
       <c r="H29" s="31">
-        <v>2099.0163443870201</v>
+        <v>2492.0918541662099</v>
       </c>
       <c r="I29" s="31">
-        <v>2563.3499275956401</v>
+        <v>3181.6949537671399</v>
       </c>
       <c r="J29" s="31">
-        <v>4379.01284002804</v>
+        <v>5301.4443162177704</v>
       </c>
       <c r="K29" s="31">
-        <v>4859.22824891457</v>
+        <v>6469.5073827699598</v>
       </c>
       <c r="L29" s="31">
-        <v>5201.0615909091803</v>
+        <v>11531.1660269359</v>
       </c>
       <c r="M29" s="31">
-        <v>2519.2421714225702</v>
+        <v>2976.6848896291799</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30" s="31">
-        <v>1342.2372972973801</v>
+        <v>1440.3090816326401</v>
       </c>
       <c r="C30" s="31">
-        <v>1755.2979874214</v>
+        <v>1646.49608675372</v>
       </c>
       <c r="D30" s="31">
-        <v>1921.758393866</v>
+        <v>1649.4617243816199</v>
       </c>
       <c r="E30" s="31">
-        <v>1935.0223399558499</v>
+        <v>1674.1314558389799</v>
       </c>
       <c r="F30" s="31">
-        <v>1942.40084398216</v>
+        <v>1837.67387723313</v>
       </c>
       <c r="G30" s="31">
-        <v>1813.7871900826301</v>
+        <v>1650.7976648430599</v>
       </c>
       <c r="H30" s="31">
-        <v>1938.3964943097201</v>
+        <v>1919.32951245138</v>
       </c>
       <c r="I30" s="31">
-        <v>2134.1201150369702</v>
+        <v>2493.3267013587401</v>
       </c>
       <c r="J30" s="31">
-        <v>3672.6050646899998</v>
+        <v>4008.4443336248601</v>
       </c>
       <c r="K30" s="31">
-        <v>5197.8501811594597</v>
+        <v>5922.02244791671</v>
       </c>
       <c r="L30" s="31">
-        <v>7065.5474999995104</v>
+        <v>9492.7832647053292</v>
       </c>
       <c r="M30" s="31">
-        <v>2251.3350979185002</v>
+        <v>2303.8412029401702</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B31" s="31">
-        <v>1502.3509239130999</v>
+        <v>1314.73906367057</v>
       </c>
       <c r="C31" s="31">
-        <v>1774.2924982746699</v>
+        <v>1420.7906120888399</v>
       </c>
       <c r="D31" s="31">
-        <v>1881.1209904371101</v>
+        <v>1489.1775124026101</v>
       </c>
       <c r="E31" s="31">
-        <v>2030.91328602151</v>
+        <v>1576.33734059732</v>
       </c>
       <c r="F31" s="31">
-        <v>2105.88659049122</v>
+        <v>1585.06441036723</v>
       </c>
       <c r="G31" s="31">
-        <v>1881.9147636662699</v>
+        <v>1509.0818593520501</v>
       </c>
       <c r="H31" s="31">
-        <v>2079.1835879267501</v>
+        <v>1821.6164643053701</v>
       </c>
       <c r="I31" s="31">
-        <v>2500.8052361809</v>
+        <v>2712.0911659192798</v>
       </c>
       <c r="J31" s="31">
-        <v>4249.7060251882303</v>
+        <v>4119.1212332901996</v>
       </c>
       <c r="K31" s="31">
-        <v>2777.0333744856098</v>
+        <v>3115.1912574851899</v>
       </c>
       <c r="L31" s="31">
-        <v>3713.1666666664601</v>
+        <v>2896.2393203885899</v>
       </c>
       <c r="M31" s="31">
-        <v>2405.5477907315799</v>
+        <v>2111.7032118348102</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B32" s="31">
-        <v>1413.9217187499901</v>
+        <v>1737.5585770363</v>
       </c>
       <c r="C32" s="31">
-        <v>1585.7244282982699</v>
+        <v>1818.1073892797001</v>
       </c>
       <c r="D32" s="31">
-        <v>1765.6431446945301</v>
+        <v>2271.9022456368898</v>
       </c>
       <c r="E32" s="31">
-        <v>1770.30004347827</v>
+        <v>2123.1897634419802</v>
       </c>
       <c r="F32" s="31">
-        <v>1752.44458388726</v>
+        <v>2010.18964072316</v>
       </c>
       <c r="G32" s="31">
-        <v>1620.78253480278</v>
+        <v>1877.5677166411001</v>
       </c>
       <c r="H32" s="31">
-        <v>1937.41989456892</v>
+        <v>2163.8436158641798</v>
       </c>
       <c r="I32" s="31">
-        <v>2267.2995587251899</v>
+        <v>2799.3768339663602</v>
       </c>
       <c r="J32" s="31">
-        <v>3873.99211117916</v>
+        <v>4887.6313916094496</v>
       </c>
       <c r="K32" s="31">
-        <v>4324.0186578450302</v>
+        <v>6792.8281160799397</v>
       </c>
       <c r="L32" s="31">
-        <v>5588.4386413042403</v>
+        <v>11948.991381100501</v>
       </c>
       <c r="M32" s="31">
-        <v>2228.6354126820702</v>
+        <v>2696.86973125035</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B33" s="31">
-        <v>1151.0941935482499</v>
+        <v>1559.5595197740899</v>
       </c>
       <c r="C33" s="31">
-        <v>1438.7686344537599</v>
+        <v>1850.3598532681301</v>
       </c>
       <c r="D33" s="31">
-        <v>1291.40021608644</v>
+        <v>2148.8966871746102</v>
       </c>
       <c r="E33" s="31">
-        <v>1455.1736332179501</v>
+        <v>2273.9650104004299</v>
       </c>
       <c r="F33" s="31">
-        <v>1666.0791850431499</v>
+        <v>2306.5639191765399</v>
       </c>
       <c r="G33" s="31">
-        <v>1443.8712247706201</v>
+        <v>1970.0844999032699</v>
       </c>
       <c r="H33" s="31">
-        <v>1655.60094560927</v>
+        <v>2445.6319941234601</v>
       </c>
       <c r="I33" s="31">
-        <v>1983.94831422009</v>
+        <v>2863.09655737705</v>
       </c>
       <c r="J33" s="31">
-        <v>3257.9325813406899</v>
+        <v>5087.1606528970597</v>
       </c>
       <c r="K33" s="31">
-        <v>3089.66833333368</v>
+        <v>6478.4288466756598</v>
       </c>
       <c r="L33" s="31">
-        <v>7712.0528140702399</v>
+        <v>7680.7322608694303</v>
       </c>
       <c r="M33" s="31">
-        <v>1906.52535363369</v>
+        <v>2839.7355402938701</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B34" s="31">
-        <v>1631.47159090888</v>
+        <v>1371.4161403508799</v>
       </c>
       <c r="C34" s="31">
-        <v>1955.7938543897501</v>
+        <v>1658.13246472021</v>
       </c>
       <c r="D34" s="31">
-        <v>1936.0957068062601</v>
+        <v>1809.4662483208799</v>
       </c>
       <c r="E34" s="31">
-        <v>1959.2840547703299</v>
+        <v>1835.2102276882099</v>
       </c>
       <c r="F34" s="31">
-        <v>1830.15524978087</v>
+        <v>1935.4299851042699</v>
       </c>
       <c r="G34" s="31">
-        <v>1711.2496232686799</v>
+        <v>1796.6011579378201</v>
       </c>
       <c r="H34" s="31">
-        <v>1851.5385398406499</v>
+        <v>1983.0125775909401</v>
       </c>
       <c r="I34" s="31">
-        <v>1934.1346987951999</v>
+        <v>2241.8150887752099</v>
       </c>
       <c r="J34" s="31">
-        <v>3446.44130991163</v>
+        <v>3597.2241424134399</v>
       </c>
       <c r="K34" s="31">
-        <v>3179.70999999994</v>
+        <v>2897.5798423422898</v>
       </c>
       <c r="L34" s="31">
-        <v>6681.0502564107601</v>
+        <v>4081.4650543480102</v>
       </c>
       <c r="M34" s="31">
-        <v>2125.9339885632698</v>
+        <v>2199.1851267648099</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B35" s="31">
-        <v>1440.3090816326401</v>
+        <v>1537.7861403509401</v>
       </c>
       <c r="C35" s="31">
-        <v>1646.49608675372</v>
+        <v>1859.0554485776199</v>
       </c>
       <c r="D35" s="31">
-        <v>1649.4617243816199</v>
+        <v>2203.9798472222201</v>
       </c>
       <c r="E35" s="31">
-        <v>1674.1314558389799</v>
+        <v>2270.3475445205399</v>
       </c>
       <c r="F35" s="31">
-        <v>1837.67387723313</v>
+        <v>2103.1670248580899</v>
       </c>
       <c r="G35" s="31">
-        <v>1650.7976648430599</v>
+        <v>2054.1220066641999</v>
       </c>
       <c r="H35" s="31">
-        <v>1919.32951245138</v>
+        <v>2179.59281391676</v>
       </c>
       <c r="I35" s="31">
-        <v>2493.3267013587401</v>
+        <v>2644.6946739130999</v>
       </c>
       <c r="J35" s="31">
-        <v>4008.4443336248601</v>
+        <v>4202.2383434679105</v>
       </c>
       <c r="K35" s="31">
-        <v>5922.02244791671</v>
+        <v>4066.0326829270998</v>
       </c>
       <c r="L35" s="31">
-        <v>9492.7832647053292</v>
+        <v>2709.0483333331799</v>
       </c>
       <c r="M35" s="31">
-        <v>2303.8412029401702</v>
+        <v>2446.2251878888301</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B36" s="31">
-        <v>1634.59481481487</v>
+        <v>1686.3195454545901</v>
       </c>
       <c r="C36" s="31">
-        <v>1418.03861491629</v>
+        <v>1907.6185289027201</v>
       </c>
       <c r="D36" s="31">
-        <v>2098.9939949957902</v>
+        <v>1949.1640403669501</v>
       </c>
       <c r="E36" s="31">
-        <v>2111.9784683016901</v>
+        <v>1923.52713795465</v>
       </c>
       <c r="F36" s="31">
-        <v>2098.6086096759</v>
+        <v>2120.1802076211802</v>
       </c>
       <c r="G36" s="31">
-        <v>1791.75536241392</v>
+        <v>1783.9413821933599</v>
       </c>
       <c r="H36" s="31">
-        <v>2019.6427491611701</v>
+        <v>2337.6565718193101</v>
       </c>
       <c r="I36" s="31">
-        <v>2505.9474536760999</v>
+        <v>3067.4339752747201</v>
       </c>
       <c r="J36" s="31">
-        <v>4211.8820510545702</v>
+        <v>5744.9627307953597</v>
       </c>
       <c r="K36" s="31">
-        <v>5046.8761111112099</v>
+        <v>7852.6253932583904</v>
       </c>
       <c r="L36" s="31">
-        <v>5263.3851807227302</v>
+        <v>9502.1621028036097</v>
       </c>
       <c r="M36" s="31">
-        <v>2426.4077039301201</v>
+        <v>3089.1159835879298</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B37" s="31">
-        <v>1582.89530303027</v>
+        <v>1620.42302325582</v>
       </c>
       <c r="C37" s="31">
-        <v>1899.8376003210501</v>
+        <v>1864.7103799132201</v>
       </c>
       <c r="D37" s="31">
-        <v>1851.37416996049</v>
+        <v>2057.2855444510901</v>
       </c>
       <c r="E37" s="31">
-        <v>1558.34777156313</v>
+        <v>2145.6560287664602</v>
       </c>
       <c r="F37" s="31">
-        <v>1719.1622217274901</v>
+        <v>2032.2259773266401</v>
       </c>
       <c r="G37" s="31">
-        <v>1574.6867529840299</v>
+        <v>1839.88610091337</v>
       </c>
       <c r="H37" s="31">
-        <v>1968.59129203572</v>
+        <v>2227.2799289299201</v>
       </c>
       <c r="I37" s="31">
-        <v>2483.6396042962101</v>
+        <v>2746.2238746867201</v>
       </c>
       <c r="J37" s="31">
-        <v>4535.9728996882304</v>
+        <v>5033.7809804847302</v>
       </c>
       <c r="K37" s="31">
-        <v>6422.31050651231</v>
+        <v>7648.9910672299802</v>
       </c>
       <c r="L37" s="31">
-        <v>10697.391637631001</v>
+        <v>6910.1359485095099</v>
       </c>
       <c r="M37" s="31">
-        <v>2473.5268494399402</v>
+        <v>2803.0784946387698</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" s="31">
-        <v>1330.0798666666899</v>
+        <v>1381.1270711298</v>
       </c>
       <c r="C38" s="31">
-        <v>1690.40581433226</v>
+        <v>1850.1517035512099</v>
       </c>
       <c r="D38" s="31">
-        <v>1983.1698132004899</v>
+        <v>1900.69768982809</v>
       </c>
       <c r="E38" s="31">
-        <v>1869.60167474422</v>
+        <v>2046.22141899141</v>
       </c>
       <c r="F38" s="31">
-        <v>1972.6284947111601</v>
+        <v>1908.3395786301901</v>
       </c>
       <c r="G38" s="31">
-        <v>1720.1497076161399</v>
+        <v>1814.37591661039</v>
       </c>
       <c r="H38" s="31">
-        <v>2065.12117056856</v>
+        <v>2340.19087717704</v>
       </c>
       <c r="I38" s="31">
-        <v>2301.8894946659102</v>
+        <v>2852.6915856031801</v>
       </c>
       <c r="J38" s="31">
-        <v>3960.4213296554899</v>
+        <v>5784.41449301384</v>
       </c>
       <c r="K38" s="31">
-        <v>4486.5759441707596</v>
+        <v>7156.2246560847097</v>
       </c>
       <c r="L38" s="31">
-        <v>4536.1943157895603</v>
+        <v>15532.7035819433</v>
       </c>
       <c r="M38" s="31">
-        <v>2338.03652180883</v>
+        <v>2977.0333980980899</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B39" s="31">
-        <v>1483.7170526315199</v>
+        <v>2357.5674789088898</v>
       </c>
       <c r="C39" s="31">
-        <v>1750.29000954194</v>
+        <v>1775.6465475271</v>
       </c>
       <c r="D39" s="31">
-        <v>1873.5327375762899</v>
+        <v>1940.30161326805</v>
       </c>
       <c r="E39" s="31">
-        <v>1783.7286249531701</v>
+        <v>1879.26863179768</v>
       </c>
       <c r="F39" s="31">
-        <v>1937.8766072379201</v>
+        <v>1974.6331109313201</v>
       </c>
       <c r="G39" s="31">
-        <v>1710.7416672911299</v>
+        <v>1810.8982036528701</v>
       </c>
       <c r="H39" s="31">
-        <v>1901.9462697400199</v>
+        <v>2247.8336050942298</v>
       </c>
       <c r="I39" s="31">
-        <v>2438.7007773108999</v>
+        <v>3365.0092513273498</v>
       </c>
       <c r="J39" s="31">
-        <v>3651.9419754020801</v>
+        <v>6889.6308376179904</v>
       </c>
       <c r="K39" s="31">
-        <v>4316.5183739833301</v>
+        <v>10418.5389471458</v>
       </c>
       <c r="L39" s="31">
-        <v>6005.2986206911501</v>
+        <v>12231.331256367601</v>
       </c>
       <c r="M39" s="31">
-        <v>2130.3857768835801</v>
+        <v>3604.3652013966398</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B40" s="31">
-        <v>1355.4452436194899</v>
+        <v>1321.8821396396199</v>
       </c>
       <c r="C40" s="31">
-        <v>1637.3931873614499</v>
+        <v>1830.66253342398</v>
       </c>
       <c r="D40" s="31">
-        <v>1776.23136501519</v>
+        <v>2042.44745306861</v>
       </c>
       <c r="E40" s="31">
-        <v>1740.2098852925701</v>
+        <v>2005.0346663933501</v>
       </c>
       <c r="F40" s="31">
-        <v>1858.1207646118901</v>
+        <v>2013.40361187747</v>
       </c>
       <c r="G40" s="31">
-        <v>1783.1903874612101</v>
+        <v>1888.99600512549</v>
       </c>
       <c r="H40" s="31">
-        <v>2122.44485579294</v>
+        <v>2099.0163443870201</v>
       </c>
       <c r="I40" s="31">
-        <v>2818.7784054431099</v>
+        <v>2563.3499275956401</v>
       </c>
       <c r="J40" s="31">
-        <v>4732.4561088748396</v>
+        <v>4379.01284002804</v>
       </c>
       <c r="K40" s="31">
-        <v>5055.20786713291</v>
+        <v>4859.22824891457</v>
       </c>
       <c r="L40" s="31">
-        <v>4491.6781126174301</v>
+        <v>5201.0615909091803</v>
       </c>
       <c r="M40" s="31">
-        <v>2438.46629424506</v>
+        <v>2519.2421714225702</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B41" s="31">
-        <v>1381.1270711298</v>
+        <v>1619.2992454835301</v>
       </c>
       <c r="C41" s="31">
-        <v>1850.1517035512099</v>
+        <v>1736.1241732650201</v>
       </c>
       <c r="D41" s="31">
-        <v>1900.69768982809</v>
+        <v>1866.7824950690399</v>
       </c>
       <c r="E41" s="31">
-        <v>2046.22141899141</v>
+        <v>1915.4318379527999</v>
       </c>
       <c r="F41" s="31">
-        <v>1908.3395786301901</v>
+        <v>1901.8250139054201</v>
       </c>
       <c r="G41" s="31">
-        <v>1814.37591661039</v>
+        <v>1854.1829443838601</v>
       </c>
       <c r="H41" s="31">
-        <v>2340.19087717704</v>
+        <v>2260.1461335447998</v>
       </c>
       <c r="I41" s="31">
-        <v>2852.6915856031801</v>
+        <v>2975.89333981755</v>
       </c>
       <c r="J41" s="31">
-        <v>5784.41449301384</v>
+        <v>5358.8071288919</v>
       </c>
       <c r="K41" s="31">
-        <v>7156.2246560847097</v>
+        <v>6771.57107094816</v>
       </c>
       <c r="L41" s="31">
-        <v>15532.7035819433</v>
+        <v>7256.1457496560997</v>
       </c>
       <c r="M41" s="31">
-        <v>2977.0333980980899</v>
+        <v>2787.28185709013</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B42" s="31">
-        <v>1463.05921535893</v>
+        <v>1598.01915789481</v>
       </c>
       <c r="C42" s="31">
-        <v>1679.40894362023</v>
+        <v>1843.6215341545301</v>
       </c>
       <c r="D42" s="31">
-        <v>1798.5304498318401</v>
+        <v>1782.3304705882399</v>
       </c>
       <c r="E42" s="31">
-        <v>2111.8412601140799</v>
+        <v>1911.7674239350799</v>
       </c>
       <c r="F42" s="31">
-        <v>1933.4721993210501</v>
+        <v>1978.4600793119901</v>
       </c>
       <c r="G42" s="31">
-        <v>1890.74604887696</v>
+        <v>1686.0716798051001</v>
       </c>
       <c r="H42" s="31">
-        <v>2057.69461514153</v>
+        <v>2272.9486473593902</v>
       </c>
       <c r="I42" s="31">
-        <v>2605.80930952379</v>
+        <v>3115.5587394643599</v>
       </c>
       <c r="J42" s="31">
-        <v>4301.7838827201704</v>
+        <v>4620.3157100580602</v>
       </c>
       <c r="K42" s="31">
-        <v>4332.66645472044</v>
+        <v>6171.0638009049599</v>
       </c>
       <c r="L42" s="31">
-        <v>6014.7729716980502</v>
+        <v>7418.83918495321</v>
       </c>
       <c r="M42" s="31">
-        <v>2363.9037649986399</v>
+        <v>2714.6068168459601</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B43" s="31">
-        <v>1414.6756875000201</v>
+        <v>1483.7170526315199</v>
       </c>
       <c r="C43" s="31">
-        <v>1729.7751448736999</v>
+        <v>1750.29000954194</v>
       </c>
       <c r="D43" s="31">
-        <v>1752.39426903553</v>
+        <v>1873.5327375762899</v>
       </c>
       <c r="E43" s="31">
-        <v>1940.0305571108599</v>
+        <v>1783.7286249531701</v>
       </c>
       <c r="F43" s="31">
-        <v>1819.4231545180501</v>
+        <v>1937.8766072379201</v>
       </c>
       <c r="G43" s="31">
-        <v>1683.6263646386701</v>
+        <v>1710.7416672911299</v>
       </c>
       <c r="H43" s="31">
-        <v>1897.3771550562401</v>
+        <v>1901.9462697400199</v>
       </c>
       <c r="I43" s="31">
-        <v>2275.8102494062</v>
+        <v>2438.7007773108999</v>
       </c>
       <c r="J43" s="31">
-        <v>3842.8802721028301</v>
+        <v>3651.9419754020801</v>
       </c>
       <c r="K43" s="31">
-        <v>4991.9841584157302</v>
+        <v>4316.5183739833301</v>
       </c>
       <c r="L43" s="31">
-        <v>7552.5611042944702</v>
+        <v>6005.2986206911501</v>
       </c>
       <c r="M43" s="31">
-        <v>2234.60192039514</v>
+        <v>2130.3857768835801</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B44" s="31">
-        <v>1537.7861403509401</v>
+        <v>1342.2372972973801</v>
       </c>
       <c r="C44" s="31">
-        <v>1859.0554485776199</v>
+        <v>1755.2979874214</v>
       </c>
       <c r="D44" s="31">
-        <v>2203.9798472222201</v>
+        <v>1921.758393866</v>
       </c>
       <c r="E44" s="31">
-        <v>2270.3475445205399</v>
+        <v>1935.0223399558499</v>
       </c>
       <c r="F44" s="31">
-        <v>2103.1670248580899</v>
+        <v>1942.40084398216</v>
       </c>
       <c r="G44" s="31">
-        <v>2054.1220066641999</v>
+        <v>1813.7871900826301</v>
       </c>
       <c r="H44" s="31">
-        <v>2179.59281391676</v>
+        <v>1938.3964943097201</v>
       </c>
       <c r="I44" s="31">
-        <v>2644.6946739130999</v>
+        <v>2134.1201150369702</v>
       </c>
       <c r="J44" s="31">
-        <v>4202.2383434679105</v>
+        <v>3672.6050646899998</v>
       </c>
       <c r="K44" s="31">
-        <v>4066.0326829270998</v>
+        <v>5197.8501811594597</v>
       </c>
       <c r="L44" s="31">
-        <v>2709.0483333331799</v>
+        <v>7065.5474999995104</v>
       </c>
       <c r="M44" s="31">
-        <v>2446.2251878888301</v>
+        <v>2251.3350979185002</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -4769,6 +4792,9 @@
       <c r="M95" s="24"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M44">
+    <sortCondition ref="A1:A44"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4777,7 +4803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5449,7 +5477,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5497,32 +5525,32 @@
       <c r="A2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="31">
-        <v>656.60714285720906</v>
-      </c>
-      <c r="C2" s="31">
-        <v>876.15691056913602</v>
-      </c>
-      <c r="D2" s="31">
-        <v>1401.21850752976</v>
-      </c>
-      <c r="E2" s="31">
-        <v>1665.31021470876</v>
-      </c>
-      <c r="F2" s="31">
-        <v>1992.7797839070299</v>
-      </c>
-      <c r="G2" s="31">
-        <v>2068.4073581238499</v>
-      </c>
-      <c r="H2" s="31">
-        <v>2094.2438969099799</v>
-      </c>
-      <c r="I2" s="31">
-        <v>1972.6448560700601</v>
-      </c>
-      <c r="J2" s="31">
-        <v>1906.52535363369</v>
+      <c r="B2" s="35">
+        <v>7</v>
+      </c>
+      <c r="C2" s="32">
+        <v>246</v>
+      </c>
+      <c r="D2" s="32">
+        <v>4449</v>
+      </c>
+      <c r="E2" s="32">
+        <v>4052</v>
+      </c>
+      <c r="F2" s="32">
+        <v>9209</v>
+      </c>
+      <c r="G2" s="32">
+        <v>7718</v>
+      </c>
+      <c r="H2" s="32">
+        <v>7411</v>
+      </c>
+      <c r="I2" s="32">
+        <v>799</v>
+      </c>
+      <c r="J2" s="34">
+        <v>33891</v>
       </c>
       <c r="L2"/>
     </row>
@@ -5530,32 +5558,32 @@
       <c r="A3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="31">
-        <v>560.86238095248598</v>
-      </c>
-      <c r="C3" s="31">
-        <v>672.98099631001503</v>
-      </c>
-      <c r="D3" s="31">
-        <v>1564.4829219712601</v>
-      </c>
-      <c r="E3" s="31">
-        <v>2094.1425419430402</v>
-      </c>
-      <c r="F3" s="31">
-        <v>2531.86463520808</v>
-      </c>
-      <c r="G3" s="31">
-        <v>2577.53320809251</v>
-      </c>
-      <c r="H3" s="31">
-        <v>2749.68141879942</v>
-      </c>
-      <c r="I3" s="31">
-        <v>2525.3525649718299</v>
-      </c>
-      <c r="J3" s="31">
-        <v>2405.5477907315799</v>
+      <c r="B3" s="32">
+        <v>21</v>
+      </c>
+      <c r="C3" s="32">
+        <v>271</v>
+      </c>
+      <c r="D3" s="32">
+        <v>4870</v>
+      </c>
+      <c r="E3" s="32">
+        <v>5126</v>
+      </c>
+      <c r="F3" s="32">
+        <v>11486</v>
+      </c>
+      <c r="G3" s="32">
+        <v>10034</v>
+      </c>
+      <c r="H3" s="32">
+        <v>8479</v>
+      </c>
+      <c r="I3" s="32">
+        <v>885</v>
+      </c>
+      <c r="J3" s="34">
+        <v>41172</v>
       </c>
       <c r="L3"/>
     </row>
@@ -5563,32 +5591,32 @@
       <c r="A4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="31">
-        <v>610.14916666659201</v>
-      </c>
-      <c r="C4" s="31">
-        <v>903.52139886578902</v>
-      </c>
-      <c r="D4" s="31">
-        <v>1493.13717607078</v>
-      </c>
-      <c r="E4" s="31">
-        <v>1918.0647128824</v>
-      </c>
-      <c r="F4" s="31">
-        <v>2338.5432724307602</v>
-      </c>
-      <c r="G4" s="31">
-        <v>2496.1610467769601</v>
-      </c>
-      <c r="H4" s="31">
-        <v>2537.4900851298698</v>
-      </c>
-      <c r="I4" s="31">
-        <v>2227.65040477205</v>
-      </c>
-      <c r="J4" s="31">
-        <v>2228.6354126820702</v>
+      <c r="B4" s="32">
+        <v>12</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1058</v>
+      </c>
+      <c r="D4" s="32">
+        <v>18538</v>
+      </c>
+      <c r="E4" s="32">
+        <v>17815</v>
+      </c>
+      <c r="F4" s="32">
+        <v>39243</v>
+      </c>
+      <c r="G4" s="32">
+        <v>31554</v>
+      </c>
+      <c r="H4" s="32">
+        <v>25373</v>
+      </c>
+      <c r="I4" s="32">
+        <v>2347</v>
+      </c>
+      <c r="J4" s="34">
+        <v>135940</v>
       </c>
       <c r="L4"/>
     </row>
@@ -5596,32 +5624,32 @@
       <c r="A5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="31">
-        <v>660.35199999995496</v>
-      </c>
-      <c r="C5" s="31">
-        <v>852.99262183236499</v>
-      </c>
-      <c r="D5" s="31">
-        <v>1580.8162269680099</v>
-      </c>
-      <c r="E5" s="31">
-        <v>2098.29675707253</v>
-      </c>
-      <c r="F5" s="31">
-        <v>2599.17497276412</v>
-      </c>
-      <c r="G5" s="31">
-        <v>2721.5779208430499</v>
-      </c>
-      <c r="H5" s="31">
-        <v>2792.6757062165202</v>
-      </c>
-      <c r="I5" s="31">
-        <v>2452.5885975609799</v>
-      </c>
-      <c r="J5" s="31">
-        <v>2438.46629424506</v>
+      <c r="B5" s="32">
+        <v>10</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1026</v>
+      </c>
+      <c r="D5" s="32">
+        <v>24911</v>
+      </c>
+      <c r="E5" s="32">
+        <v>23966</v>
+      </c>
+      <c r="F5" s="32">
+        <v>53055</v>
+      </c>
+      <c r="G5" s="32">
+        <v>40805</v>
+      </c>
+      <c r="H5" s="32">
+        <v>31159</v>
+      </c>
+      <c r="I5" s="32">
+        <v>3280</v>
+      </c>
+      <c r="J5" s="34">
+        <v>178212</v>
       </c>
       <c r="L5"/>
     </row>
@@ -5629,32 +5657,32 @@
       <c r="A6" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="31">
-        <v>614.36500000022397</v>
-      </c>
-      <c r="C6" s="31">
-        <v>740.917390243878</v>
-      </c>
-      <c r="D6" s="31">
-        <v>1509.18306767527</v>
-      </c>
-      <c r="E6" s="31">
-        <v>2006.99240255422</v>
-      </c>
-      <c r="F6" s="31">
-        <v>2511.0273159940298</v>
-      </c>
-      <c r="G6" s="31">
-        <v>2735.2180224901799</v>
-      </c>
-      <c r="H6" s="31">
-        <v>2872.4936877260802</v>
-      </c>
-      <c r="I6" s="31">
-        <v>2696.7731250000502</v>
-      </c>
-      <c r="J6" s="31">
-        <v>2426.4077039301201</v>
+      <c r="B6" s="32">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32">
+        <v>410</v>
+      </c>
+      <c r="D6" s="32">
+        <v>7403</v>
+      </c>
+      <c r="E6" s="32">
+        <v>7517</v>
+      </c>
+      <c r="F6" s="32">
+        <v>16725</v>
+      </c>
+      <c r="G6" s="32">
+        <v>13517</v>
+      </c>
+      <c r="H6" s="32">
+        <v>10779</v>
+      </c>
+      <c r="I6" s="32">
+        <v>896</v>
+      </c>
+      <c r="J6" s="34">
+        <v>57250</v>
       </c>
       <c r="L6"/>
     </row>
@@ -5662,32 +5690,32 @@
       <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="31">
-        <v>603.39000000013004</v>
-      </c>
-      <c r="C7" s="31">
-        <v>937.44749163883796</v>
-      </c>
-      <c r="D7" s="31">
-        <v>1430.7583396013599</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1734.1039063523101</v>
-      </c>
-      <c r="F7" s="31">
-        <v>2092.12887035633</v>
-      </c>
-      <c r="G7" s="31">
-        <v>2287.7527935382</v>
-      </c>
-      <c r="H7" s="31">
-        <v>2329.9869547756298</v>
-      </c>
-      <c r="I7" s="31">
-        <v>2270.8506489360998</v>
-      </c>
-      <c r="J7" s="31">
-        <v>2016.3726200132701</v>
+      <c r="B7" s="32">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32">
+        <v>598</v>
+      </c>
+      <c r="D7" s="32">
+        <v>10636</v>
+      </c>
+      <c r="E7" s="32">
+        <v>9162</v>
+      </c>
+      <c r="F7" s="32">
+        <v>19785</v>
+      </c>
+      <c r="G7" s="32">
+        <v>15228</v>
+      </c>
+      <c r="H7" s="32">
+        <v>11454</v>
+      </c>
+      <c r="I7" s="32">
+        <v>940</v>
+      </c>
+      <c r="J7" s="34">
+        <v>67805</v>
       </c>
       <c r="L7"/>
     </row>
@@ -5695,32 +5723,32 @@
       <c r="A8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="31">
-        <v>200.68333333327101</v>
-      </c>
-      <c r="C8" s="31">
-        <v>1003.47719152157</v>
-      </c>
-      <c r="D8" s="31">
-        <v>1619.51204194305</v>
-      </c>
-      <c r="E8" s="31">
-        <v>2039.1346795273701</v>
-      </c>
-      <c r="F8" s="31">
-        <v>2582.4650967655198</v>
-      </c>
-      <c r="G8" s="31">
-        <v>2803.3248713049002</v>
-      </c>
-      <c r="H8" s="31">
-        <v>2734.2874868346598</v>
-      </c>
-      <c r="I8" s="31">
-        <v>2453.9276101628202</v>
-      </c>
-      <c r="J8" s="31">
-        <v>2414.3225018007101</v>
+      <c r="B8" s="32">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1321</v>
+      </c>
+      <c r="D8" s="32">
+        <v>24271</v>
+      </c>
+      <c r="E8" s="32">
+        <v>20735</v>
+      </c>
+      <c r="F8" s="32">
+        <v>44644</v>
+      </c>
+      <c r="G8" s="32">
+        <v>34539</v>
+      </c>
+      <c r="H8" s="32">
+        <v>24686</v>
+      </c>
+      <c r="I8" s="32">
+        <v>2519</v>
+      </c>
+      <c r="J8" s="34">
+        <v>152718</v>
       </c>
       <c r="L8"/>
     </row>
@@ -5728,32 +5756,32 @@
       <c r="A9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="31">
-        <v>325.216666666636</v>
-      </c>
-      <c r="C9" s="31">
-        <v>839.34165467627997</v>
-      </c>
-      <c r="D9" s="31">
-        <v>1559.5999174067999</v>
-      </c>
-      <c r="E9" s="31">
-        <v>2057.2528793132901</v>
-      </c>
-      <c r="F9" s="31">
-        <v>2536.41056873147</v>
-      </c>
-      <c r="G9" s="31">
-        <v>2644.0099600805302</v>
-      </c>
-      <c r="H9" s="31">
-        <v>2625.1263234142598</v>
-      </c>
-      <c r="I9" s="31">
-        <v>2351.4400713985901</v>
-      </c>
-      <c r="J9" s="31">
-        <v>2363.9037649986399</v>
+      <c r="B9" s="32">
+        <v>3</v>
+      </c>
+      <c r="C9" s="32">
+        <v>695</v>
+      </c>
+      <c r="D9" s="32">
+        <v>17677</v>
+      </c>
+      <c r="E9" s="32">
+        <v>17591</v>
+      </c>
+      <c r="F9" s="32">
+        <v>38454</v>
+      </c>
+      <c r="G9" s="32">
+        <v>28808</v>
+      </c>
+      <c r="H9" s="32">
+        <v>22986</v>
+      </c>
+      <c r="I9" s="32">
+        <v>2381</v>
+      </c>
+      <c r="J9" s="34">
+        <v>128595</v>
       </c>
       <c r="L9"/>
     </row>
@@ -5761,32 +5789,32 @@
       <c r="A10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="31">
-        <v>632.12111111109505</v>
-      </c>
-      <c r="C10" s="31">
-        <v>815.39432950190906</v>
-      </c>
-      <c r="D10" s="31">
-        <v>1446.1986947389901</v>
-      </c>
-      <c r="E10" s="31">
-        <v>1989.0675554633301</v>
-      </c>
-      <c r="F10" s="31">
-        <v>2662.88935381171</v>
-      </c>
-      <c r="G10" s="31">
-        <v>2994.96103213999</v>
-      </c>
-      <c r="H10" s="31">
-        <v>3179.8749465023302</v>
-      </c>
-      <c r="I10" s="31">
-        <v>2479.7837657784899</v>
-      </c>
-      <c r="J10" s="31">
-        <v>2511.3129363533899</v>
+      <c r="B10" s="32">
+        <v>27</v>
+      </c>
+      <c r="C10" s="32">
+        <v>3393</v>
+      </c>
+      <c r="D10" s="32">
+        <v>29519</v>
+      </c>
+      <c r="E10" s="32">
+        <v>26504</v>
+      </c>
+      <c r="F10" s="32">
+        <v>57166</v>
+      </c>
+      <c r="G10" s="32">
+        <v>43715</v>
+      </c>
+      <c r="H10" s="32">
+        <v>31964</v>
+      </c>
+      <c r="I10" s="32">
+        <v>2852</v>
+      </c>
+      <c r="J10" s="34">
+        <v>195140</v>
       </c>
       <c r="L10"/>
     </row>
@@ -5794,32 +5822,32 @@
       <c r="A11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="31">
-        <v>615.93600000012702</v>
-      </c>
-      <c r="C11" s="31">
-        <v>1026.53548387106</v>
-      </c>
-      <c r="D11" s="31">
-        <v>1572.3275004463601</v>
-      </c>
-      <c r="E11" s="31">
-        <v>2013.41048097354</v>
-      </c>
-      <c r="F11" s="31">
-        <v>2563.5968131634099</v>
-      </c>
-      <c r="G11" s="31">
-        <v>2802.5764196242299</v>
-      </c>
-      <c r="H11" s="31">
-        <v>3295.8064989631098</v>
-      </c>
-      <c r="I11" s="31">
-        <v>3109.91518644077</v>
-      </c>
-      <c r="J11" s="31">
-        <v>2519.1624612512401</v>
+      <c r="B11" s="32">
+        <v>5</v>
+      </c>
+      <c r="C11" s="32">
+        <v>775</v>
+      </c>
+      <c r="D11" s="32">
+        <v>11202</v>
+      </c>
+      <c r="E11" s="32">
+        <v>10354</v>
+      </c>
+      <c r="F11" s="32">
+        <v>23459</v>
+      </c>
+      <c r="G11" s="32">
+        <v>18202</v>
+      </c>
+      <c r="H11" s="32">
+        <v>13019</v>
+      </c>
+      <c r="I11" s="32">
+        <v>1180</v>
+      </c>
+      <c r="J11" s="34">
+        <v>78196</v>
       </c>
       <c r="L11"/>
     </row>
@@ -5827,32 +5855,32 @@
       <c r="A12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="31">
-        <v>756.56566666673598</v>
-      </c>
-      <c r="C12" s="31">
-        <v>958.10514566782399</v>
-      </c>
-      <c r="D12" s="31">
-        <v>1736.5834751243599</v>
-      </c>
-      <c r="E12" s="31">
-        <v>2547.6581844971402</v>
-      </c>
-      <c r="F12" s="31">
-        <v>3593.1647499208898</v>
-      </c>
-      <c r="G12" s="31">
-        <v>4047.2577807595098</v>
-      </c>
-      <c r="H12" s="31">
-        <v>4113.3258776511402</v>
-      </c>
-      <c r="I12" s="31">
-        <v>3597.69398342058</v>
-      </c>
-      <c r="J12" s="31">
-        <v>3345.8052687506101</v>
+      <c r="B12" s="32">
+        <v>30</v>
+      </c>
+      <c r="C12" s="32">
+        <v>7929</v>
+      </c>
+      <c r="D12" s="32">
+        <v>151373</v>
+      </c>
+      <c r="E12" s="32">
+        <v>150669</v>
+      </c>
+      <c r="F12" s="32">
+        <v>325477</v>
+      </c>
+      <c r="G12" s="32">
+        <v>239235</v>
+      </c>
+      <c r="H12" s="32">
+        <v>170022</v>
+      </c>
+      <c r="I12" s="32">
+        <v>16044</v>
+      </c>
+      <c r="J12" s="34">
+        <v>1060779</v>
       </c>
       <c r="L12"/>
     </row>
@@ -5860,32 +5888,32 @@
       <c r="A13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="31">
-        <v>501.47714285712198</v>
-      </c>
-      <c r="C13" s="31">
-        <v>914.59487352443398</v>
-      </c>
-      <c r="D13" s="31">
-        <v>1597.50937831327</v>
-      </c>
-      <c r="E13" s="31">
-        <v>1953.9456467847101</v>
-      </c>
-      <c r="F13" s="31">
-        <v>2448.2088252475901</v>
-      </c>
-      <c r="G13" s="31">
-        <v>3085.7064880846601</v>
-      </c>
-      <c r="H13" s="31">
-        <v>3416.6036820907502</v>
-      </c>
-      <c r="I13" s="31">
-        <v>3384.3071338251302</v>
-      </c>
-      <c r="J13" s="31">
-        <v>2524.1047059846901</v>
+      <c r="B13" s="32">
+        <v>7</v>
+      </c>
+      <c r="C13" s="32">
+        <v>593</v>
+      </c>
+      <c r="D13" s="32">
+        <v>12450</v>
+      </c>
+      <c r="E13" s="32">
+        <v>10730</v>
+      </c>
+      <c r="F13" s="32">
+        <v>21911</v>
+      </c>
+      <c r="G13" s="32">
+        <v>16911</v>
+      </c>
+      <c r="H13" s="32">
+        <v>11173</v>
+      </c>
+      <c r="I13" s="32">
+        <v>949</v>
+      </c>
+      <c r="J13" s="34">
+        <v>74724</v>
       </c>
       <c r="L13"/>
     </row>
@@ -5893,32 +5921,32 @@
       <c r="A14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="31">
-        <v>853.66999999992504</v>
-      </c>
-      <c r="C14" s="31">
-        <v>908.30311111113599</v>
-      </c>
-      <c r="D14" s="31">
-        <v>1611.88760170196</v>
-      </c>
-      <c r="E14" s="31">
-        <v>2059.7048971680802</v>
-      </c>
-      <c r="F14" s="31">
-        <v>2515.9068794690702</v>
-      </c>
-      <c r="G14" s="31">
-        <v>2750.9085862945799</v>
-      </c>
-      <c r="H14" s="31">
-        <v>2762.55297568786</v>
-      </c>
-      <c r="I14" s="31">
-        <v>2788.0229472903502</v>
-      </c>
-      <c r="J14" s="31">
-        <v>2435.1542732210401</v>
+      <c r="B14" s="32">
+        <v>2</v>
+      </c>
+      <c r="C14" s="32">
+        <v>405</v>
+      </c>
+      <c r="D14" s="32">
+        <v>9636</v>
+      </c>
+      <c r="E14" s="32">
+        <v>9287</v>
+      </c>
+      <c r="F14" s="32">
+        <v>21397</v>
+      </c>
+      <c r="G14" s="32">
+        <v>16913</v>
+      </c>
+      <c r="H14" s="32">
+        <v>13738</v>
+      </c>
+      <c r="I14" s="32">
+        <v>1347</v>
+      </c>
+      <c r="J14" s="34">
+        <v>72725</v>
       </c>
       <c r="L14"/>
     </row>
@@ -5926,32 +5954,32 @@
       <c r="A15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="32">
         <v>0</v>
       </c>
-      <c r="C15" s="31">
-        <v>736.53326923087604</v>
-      </c>
-      <c r="D15" s="31">
-        <v>1681.7342609746199</v>
-      </c>
-      <c r="E15" s="31">
-        <v>2286.6818912193098</v>
-      </c>
-      <c r="F15" s="31">
-        <v>3050.1335412356302</v>
-      </c>
-      <c r="G15" s="31">
-        <v>3308.9078918824498</v>
-      </c>
-      <c r="H15" s="31">
-        <v>2900.1672181583599</v>
-      </c>
-      <c r="I15" s="31">
-        <v>2313.2755128205499</v>
-      </c>
-      <c r="J15" s="31">
-        <v>2822.2780998867102</v>
+      <c r="C15" s="32">
+        <v>52</v>
+      </c>
+      <c r="D15" s="32">
+        <v>2483</v>
+      </c>
+      <c r="E15" s="32">
+        <v>2813</v>
+      </c>
+      <c r="F15" s="32">
+        <v>6766</v>
+      </c>
+      <c r="G15" s="32">
+        <v>5716</v>
+      </c>
+      <c r="H15" s="32">
+        <v>4648</v>
+      </c>
+      <c r="I15" s="32">
+        <v>468</v>
+      </c>
+      <c r="J15" s="34">
+        <v>22946</v>
       </c>
       <c r="L15"/>
     </row>
@@ -5959,32 +5987,32 @@
       <c r="A16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="31">
-        <v>581.12000000011199</v>
-      </c>
-      <c r="C16" s="31">
-        <v>873.85356643356704</v>
-      </c>
-      <c r="D16" s="31">
-        <v>1515.0606547619</v>
-      </c>
-      <c r="E16" s="31">
-        <v>1915.27078962368</v>
-      </c>
-      <c r="F16" s="31">
-        <v>2297.5793421052499</v>
-      </c>
-      <c r="G16" s="31">
-        <v>2305.4551759767901</v>
-      </c>
-      <c r="H16" s="31">
-        <v>2302.4962002744001</v>
-      </c>
-      <c r="I16" s="31">
-        <v>2010.13672768885</v>
-      </c>
-      <c r="J16" s="31">
-        <v>2125.9339885632698</v>
+      <c r="B16" s="32">
+        <v>1</v>
+      </c>
+      <c r="C16" s="32">
+        <v>286</v>
+      </c>
+      <c r="D16" s="32">
+        <v>3528</v>
+      </c>
+      <c r="E16" s="32">
+        <v>3508</v>
+      </c>
+      <c r="F16" s="32">
+        <v>7524</v>
+      </c>
+      <c r="G16" s="32">
+        <v>6194</v>
+      </c>
+      <c r="H16" s="32">
+        <v>5103</v>
+      </c>
+      <c r="I16" s="32">
+        <v>437</v>
+      </c>
+      <c r="J16" s="34">
+        <v>26581</v>
       </c>
       <c r="L16"/>
     </row>
@@ -5992,32 +6020,32 @@
       <c r="A17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="32">
         <v>0</v>
       </c>
-      <c r="C17" s="31">
-        <v>919.35155172410805</v>
-      </c>
-      <c r="D17" s="31">
-        <v>1535.68392480387</v>
-      </c>
-      <c r="E17" s="31">
-        <v>1969.62789018952</v>
-      </c>
-      <c r="F17" s="31">
-        <v>2429.7645077207999</v>
-      </c>
-      <c r="G17" s="31">
-        <v>2457.7095189370398</v>
-      </c>
-      <c r="H17" s="31">
-        <v>2401.3974618736402</v>
-      </c>
-      <c r="I17" s="31">
-        <v>1903.6364238410299</v>
-      </c>
-      <c r="J17" s="31">
-        <v>2236.2429408829998</v>
+      <c r="C17" s="32">
+        <v>174</v>
+      </c>
+      <c r="D17" s="32">
+        <v>3697</v>
+      </c>
+      <c r="E17" s="32">
+        <v>3588</v>
+      </c>
+      <c r="F17" s="32">
+        <v>8095</v>
+      </c>
+      <c r="G17" s="32">
+        <v>6548</v>
+      </c>
+      <c r="H17" s="32">
+        <v>5508</v>
+      </c>
+      <c r="I17" s="32">
+        <v>453</v>
+      </c>
+      <c r="J17" s="34">
+        <v>28063</v>
       </c>
       <c r="L17"/>
     </row>
@@ -6025,32 +6053,32 @@
       <c r="A18" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="31">
-        <v>481.21777777777402</v>
-      </c>
-      <c r="C18" s="31">
-        <v>870.17829065744797</v>
-      </c>
-      <c r="D18" s="31">
-        <v>1521.6174141199299</v>
-      </c>
-      <c r="E18" s="31">
-        <v>1931.5336504253701</v>
-      </c>
-      <c r="F18" s="31">
-        <v>2349.9254861406698</v>
-      </c>
-      <c r="G18" s="31">
-        <v>2523.9113301409898</v>
-      </c>
-      <c r="H18" s="31">
-        <v>2629.9984344135</v>
-      </c>
-      <c r="I18" s="31">
-        <v>2480.3635934891699</v>
-      </c>
-      <c r="J18" s="31">
-        <v>2234.60192039514</v>
+      <c r="B18" s="32">
+        <v>18</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1445</v>
+      </c>
+      <c r="D18" s="32">
+        <v>21629</v>
+      </c>
+      <c r="E18" s="32">
+        <v>19395</v>
+      </c>
+      <c r="F18" s="32">
+        <v>39937</v>
+      </c>
+      <c r="G18" s="32">
+        <v>30072</v>
+      </c>
+      <c r="H18" s="32">
+        <v>23793</v>
+      </c>
+      <c r="I18" s="32">
+        <v>2396</v>
+      </c>
+      <c r="J18" s="34">
+        <v>138685</v>
       </c>
       <c r="L18"/>
     </row>
@@ -6058,32 +6086,32 @@
       <c r="A19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="31">
-        <v>507.89250000007502</v>
-      </c>
-      <c r="C19" s="31">
-        <v>714.089506641394</v>
-      </c>
-      <c r="D19" s="31">
-        <v>1622.23320969104</v>
-      </c>
-      <c r="E19" s="31">
-        <v>2001.9273647836201</v>
-      </c>
-      <c r="F19" s="31">
-        <v>2609.80634503192</v>
-      </c>
-      <c r="G19" s="31">
-        <v>2889.3373949931301</v>
-      </c>
-      <c r="H19" s="31">
-        <v>2890.2474125819699</v>
-      </c>
-      <c r="I19" s="31">
-        <v>3102.18707234046</v>
-      </c>
-      <c r="J19" s="31">
-        <v>2490.8297917970699</v>
+      <c r="B19" s="32">
+        <v>4</v>
+      </c>
+      <c r="C19" s="32">
+        <v>527</v>
+      </c>
+      <c r="D19" s="32">
+        <v>10649</v>
+      </c>
+      <c r="E19" s="32">
+        <v>9984</v>
+      </c>
+      <c r="F19" s="32">
+        <v>21598</v>
+      </c>
+      <c r="G19" s="32">
+        <v>16737</v>
+      </c>
+      <c r="H19" s="32">
+        <v>12812</v>
+      </c>
+      <c r="I19" s="32">
+        <v>1175</v>
+      </c>
+      <c r="J19" s="34">
+        <v>73486</v>
       </c>
       <c r="L19"/>
     </row>
@@ -6091,32 +6119,32 @@
       <c r="A20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="31">
-        <v>844.44000000041001</v>
-      </c>
-      <c r="C20" s="31">
-        <v>995.71003541915002</v>
-      </c>
-      <c r="D20" s="31">
-        <v>1561.5757104822101</v>
-      </c>
-      <c r="E20" s="31">
-        <v>1966.47837903135</v>
-      </c>
-      <c r="F20" s="31">
-        <v>2459.4792600650098</v>
-      </c>
-      <c r="G20" s="31">
-        <v>2654.7773571095399</v>
-      </c>
-      <c r="H20" s="31">
-        <v>2595.4688783738502</v>
-      </c>
-      <c r="I20" s="31">
-        <v>2142.4019002201298</v>
-      </c>
-      <c r="J20" s="31">
-        <v>2292.0690740263499</v>
+      <c r="B20" s="32">
+        <v>1</v>
+      </c>
+      <c r="C20" s="32">
+        <v>847</v>
+      </c>
+      <c r="D20" s="32">
+        <v>20282</v>
+      </c>
+      <c r="E20" s="32">
+        <v>17798</v>
+      </c>
+      <c r="F20" s="32">
+        <v>38152</v>
+      </c>
+      <c r="G20" s="32">
+        <v>27871</v>
+      </c>
+      <c r="H20" s="32">
+        <v>17858</v>
+      </c>
+      <c r="I20" s="32">
+        <v>1363</v>
+      </c>
+      <c r="J20" s="34">
+        <v>124172</v>
       </c>
       <c r="L20"/>
     </row>
@@ -6124,32 +6152,32 @@
       <c r="A21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="31">
-        <v>721.85384615388898</v>
-      </c>
-      <c r="C21" s="31">
-        <v>943.13702312145904</v>
-      </c>
-      <c r="D21" s="31">
-        <v>1367.74024658652</v>
-      </c>
-      <c r="E21" s="31">
-        <v>1654.07870487835</v>
-      </c>
-      <c r="F21" s="31">
-        <v>1981.18373365042</v>
-      </c>
-      <c r="G21" s="31">
-        <v>2126.7401189756001</v>
-      </c>
-      <c r="H21" s="31">
-        <v>2136.6226720954501</v>
-      </c>
-      <c r="I21" s="31">
-        <v>2325.5773711340698</v>
-      </c>
-      <c r="J21" s="31">
-        <v>1900.03340166772</v>
+      <c r="B21" s="32">
+        <v>13</v>
+      </c>
+      <c r="C21" s="32">
+        <v>346</v>
+      </c>
+      <c r="D21" s="32">
+        <v>9814</v>
+      </c>
+      <c r="E21" s="32">
+        <v>8671</v>
+      </c>
+      <c r="F21" s="32">
+        <v>18502</v>
+      </c>
+      <c r="G21" s="32">
+        <v>14877</v>
+      </c>
+      <c r="H21" s="32">
+        <v>10561</v>
+      </c>
+      <c r="I21" s="32">
+        <v>776</v>
+      </c>
+      <c r="J21" s="34">
+        <v>63560</v>
       </c>
       <c r="L21"/>
     </row>
@@ -6157,32 +6185,32 @@
       <c r="A22" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="31">
-        <v>499.5</v>
-      </c>
-      <c r="C22" s="31">
-        <v>909.07647342996199</v>
-      </c>
-      <c r="D22" s="31">
-        <v>1491.72500324465</v>
-      </c>
-      <c r="E22" s="31">
-        <v>1828.4335179462801</v>
-      </c>
-      <c r="F22" s="31">
-        <v>2131.3654489974001</v>
-      </c>
-      <c r="G22" s="31">
-        <v>2278.6293616463599</v>
-      </c>
-      <c r="H22" s="31">
-        <v>2285.6859735654498</v>
-      </c>
-      <c r="I22" s="31">
-        <v>2141.77167953668</v>
-      </c>
-      <c r="J22" s="31">
-        <v>2050.3685176822501</v>
+      <c r="B22" s="32">
+        <v>2</v>
+      </c>
+      <c r="C22" s="32">
+        <v>414</v>
+      </c>
+      <c r="D22" s="32">
+        <v>4623</v>
+      </c>
+      <c r="E22" s="32">
+        <v>4207</v>
+      </c>
+      <c r="F22" s="32">
+        <v>9176</v>
+      </c>
+      <c r="G22" s="32">
+        <v>7629</v>
+      </c>
+      <c r="H22" s="32">
+        <v>6204</v>
+      </c>
+      <c r="I22" s="32">
+        <v>518</v>
+      </c>
+      <c r="J22" s="34">
+        <v>32773</v>
       </c>
       <c r="L22"/>
     </row>
@@ -6190,32 +6218,32 @@
       <c r="A23" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="31">
-        <v>1018.84333333342</v>
-      </c>
-      <c r="C23" s="31">
-        <v>805.50714566932197</v>
-      </c>
-      <c r="D23" s="31">
-        <v>1545.5925597365999</v>
-      </c>
-      <c r="E23" s="31">
-        <v>1944.06115239419</v>
-      </c>
-      <c r="F23" s="31">
-        <v>2336.8038086586698</v>
-      </c>
-      <c r="G23" s="31">
-        <v>2495.1167812213998</v>
-      </c>
-      <c r="H23" s="31">
-        <v>2426.4176049918001</v>
-      </c>
-      <c r="I23" s="31">
-        <v>1998.01687349395</v>
-      </c>
-      <c r="J23" s="31">
-        <v>2199.86854241525</v>
+      <c r="B23" s="32">
+        <v>3</v>
+      </c>
+      <c r="C23" s="32">
+        <v>1016</v>
+      </c>
+      <c r="D23" s="32">
+        <v>10630</v>
+      </c>
+      <c r="E23" s="32">
+        <v>10066</v>
+      </c>
+      <c r="F23" s="32">
+        <v>22567</v>
+      </c>
+      <c r="G23" s="32">
+        <v>17488</v>
+      </c>
+      <c r="H23" s="32">
+        <v>13382</v>
+      </c>
+      <c r="I23" s="32">
+        <v>1660</v>
+      </c>
+      <c r="J23" s="34">
+        <v>76812</v>
       </c>
       <c r="L23"/>
     </row>
@@ -6223,32 +6251,32 @@
       <c r="A24" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="31">
-        <v>625.71500000008405</v>
-      </c>
-      <c r="C24" s="31">
-        <v>1019.63433566435</v>
-      </c>
-      <c r="D24" s="31">
-        <v>1762.71695928956</v>
-      </c>
-      <c r="E24" s="31">
-        <v>2443.1364384625699</v>
-      </c>
-      <c r="F24" s="31">
-        <v>3301.8701838726001</v>
-      </c>
-      <c r="G24" s="31">
-        <v>3780.7000249442299</v>
-      </c>
-      <c r="H24" s="31">
-        <v>3789.2237485353799</v>
-      </c>
-      <c r="I24" s="31">
-        <v>3182.9546920746802</v>
-      </c>
-      <c r="J24" s="31">
-        <v>3084.3460705079701</v>
+      <c r="B24" s="32">
+        <v>4</v>
+      </c>
+      <c r="C24" s="32">
+        <v>2431</v>
+      </c>
+      <c r="D24" s="32">
+        <v>50110</v>
+      </c>
+      <c r="E24" s="32">
+        <v>45062</v>
+      </c>
+      <c r="F24" s="32">
+        <v>96643</v>
+      </c>
+      <c r="G24" s="32">
+        <v>68152</v>
+      </c>
+      <c r="H24" s="32">
+        <v>44380</v>
+      </c>
+      <c r="I24" s="32">
+        <v>3962</v>
+      </c>
+      <c r="J24" s="34">
+        <v>310745</v>
       </c>
       <c r="L24"/>
     </row>
@@ -6256,32 +6284,32 @@
       <c r="A25" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="31">
-        <v>1180.90000000037</v>
-      </c>
-      <c r="C25" s="31">
-        <v>995.40192214110698</v>
-      </c>
-      <c r="D25" s="31">
-        <v>1712.17759207893</v>
-      </c>
-      <c r="E25" s="31">
-        <v>2292.65141988595</v>
-      </c>
-      <c r="F25" s="31">
-        <v>2922.5514206347698</v>
-      </c>
-      <c r="G25" s="31">
-        <v>3212.33590132565</v>
-      </c>
-      <c r="H25" s="31">
-        <v>3129.0660575627098</v>
-      </c>
-      <c r="I25" s="31">
-        <v>2432.4299596147898</v>
-      </c>
-      <c r="J25" s="31">
-        <v>2734.7837968014501</v>
+      <c r="B25" s="32">
+        <v>1</v>
+      </c>
+      <c r="C25" s="32">
+        <v>1233</v>
+      </c>
+      <c r="D25" s="32">
+        <v>28481</v>
+      </c>
+      <c r="E25" s="32">
+        <v>26481</v>
+      </c>
+      <c r="F25" s="32">
+        <v>58319</v>
+      </c>
+      <c r="G25" s="32">
+        <v>43375</v>
+      </c>
+      <c r="H25" s="32">
+        <v>31166</v>
+      </c>
+      <c r="I25" s="32">
+        <v>3219</v>
+      </c>
+      <c r="J25" s="34">
+        <v>192275</v>
       </c>
       <c r="L25"/>
     </row>
@@ -6289,32 +6317,32 @@
       <c r="A26" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="31">
-        <v>750.44800000023099</v>
-      </c>
-      <c r="C26" s="31">
-        <v>764.32328089889495</v>
-      </c>
-      <c r="D26" s="31">
-        <v>1528.2693306323499</v>
-      </c>
-      <c r="E26" s="31">
-        <v>1977.2802694828799</v>
-      </c>
-      <c r="F26" s="31">
-        <v>2502.9570519145</v>
-      </c>
-      <c r="G26" s="31">
-        <v>2670.5893619093899</v>
-      </c>
-      <c r="H26" s="31">
-        <v>2576.4864012307498</v>
-      </c>
-      <c r="I26" s="31">
-        <v>2251.8664285713999</v>
-      </c>
-      <c r="J26" s="31">
-        <v>2340.2828577976302</v>
+      <c r="B26" s="32">
+        <v>5</v>
+      </c>
+      <c r="C26" s="32">
+        <v>445</v>
+      </c>
+      <c r="D26" s="32">
+        <v>5677</v>
+      </c>
+      <c r="E26" s="32">
+        <v>5492</v>
+      </c>
+      <c r="F26" s="32">
+        <v>12771</v>
+      </c>
+      <c r="G26" s="32">
+        <v>10265</v>
+      </c>
+      <c r="H26" s="32">
+        <v>8125</v>
+      </c>
+      <c r="I26" s="32">
+        <v>854</v>
+      </c>
+      <c r="J26" s="34">
+        <v>43635</v>
       </c>
       <c r="L26"/>
     </row>
@@ -6322,32 +6350,32 @@
       <c r="A27" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="31">
-        <v>450.37000000011199</v>
-      </c>
-      <c r="C27" s="31">
-        <v>804.09307547172295</v>
-      </c>
-      <c r="D27" s="31">
-        <v>1519.00192179701</v>
-      </c>
-      <c r="E27" s="31">
-        <v>2016.3393884663999</v>
-      </c>
-      <c r="F27" s="31">
-        <v>2549.3726802429301</v>
-      </c>
-      <c r="G27" s="31">
-        <v>2815.6378856871402</v>
-      </c>
-      <c r="H27" s="31">
-        <v>2980.2968203158098</v>
-      </c>
-      <c r="I27" s="31">
-        <v>3081.7941984231002</v>
-      </c>
-      <c r="J27" s="31">
-        <v>2473.5268494399402</v>
+      <c r="B27" s="32">
+        <v>1</v>
+      </c>
+      <c r="C27" s="32">
+        <v>530</v>
+      </c>
+      <c r="D27" s="32">
+        <v>13222</v>
+      </c>
+      <c r="E27" s="32">
+        <v>12624</v>
+      </c>
+      <c r="F27" s="32">
+        <v>27990</v>
+      </c>
+      <c r="G27" s="32">
+        <v>23147</v>
+      </c>
+      <c r="H27" s="32">
+        <v>16401</v>
+      </c>
+      <c r="I27" s="32">
+        <v>1522</v>
+      </c>
+      <c r="J27" s="34">
+        <v>95437</v>
       </c>
       <c r="L27"/>
     </row>
@@ -6355,32 +6383,32 @@
       <c r="A28" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="32">
         <v>0</v>
       </c>
-      <c r="C28" s="31">
-        <v>781.84814000001904</v>
-      </c>
-      <c r="D28" s="31">
-        <v>1584.3724197080301</v>
-      </c>
-      <c r="E28" s="31">
-        <v>2022.5511076548601</v>
-      </c>
-      <c r="F28" s="31">
-        <v>2480.1305976316798</v>
-      </c>
-      <c r="G28" s="31">
-        <v>2643.7600799938</v>
-      </c>
-      <c r="H28" s="31">
-        <v>2646.3553831589302</v>
-      </c>
-      <c r="I28" s="31">
-        <v>2306.6737555066202</v>
-      </c>
-      <c r="J28" s="31">
-        <v>2338.03652180883</v>
+      <c r="C28" s="32">
+        <v>500</v>
+      </c>
+      <c r="D28" s="32">
+        <v>8220</v>
+      </c>
+      <c r="E28" s="32">
+        <v>7394</v>
+      </c>
+      <c r="F28" s="32">
+        <v>16214</v>
+      </c>
+      <c r="G28" s="32">
+        <v>12876</v>
+      </c>
+      <c r="H28" s="32">
+        <v>10035</v>
+      </c>
+      <c r="I28" s="32">
+        <v>908</v>
+      </c>
+      <c r="J28" s="34">
+        <v>56147</v>
       </c>
       <c r="L28"/>
     </row>
@@ -6388,32 +6416,32 @@
       <c r="A29" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="31">
-        <v>560.19399999994801</v>
-      </c>
-      <c r="C29" s="31">
-        <v>861.43842364530201</v>
-      </c>
-      <c r="D29" s="31">
-        <v>1787.47947334487</v>
-      </c>
-      <c r="E29" s="31">
-        <v>2431.9847087173498</v>
-      </c>
-      <c r="F29" s="31">
-        <v>3141.4494951707802</v>
-      </c>
-      <c r="G29" s="31">
-        <v>3492.2608489684799</v>
-      </c>
-      <c r="H29" s="31">
-        <v>3585.8871032755301</v>
-      </c>
-      <c r="I29" s="31">
-        <v>3161.99884641879</v>
-      </c>
-      <c r="J29" s="31">
-        <v>2976.6848896291799</v>
+      <c r="B29" s="32">
+        <v>5</v>
+      </c>
+      <c r="C29" s="32">
+        <v>1015</v>
+      </c>
+      <c r="D29" s="32">
+        <v>24817</v>
+      </c>
+      <c r="E29" s="32">
+        <v>23654</v>
+      </c>
+      <c r="F29" s="32">
+        <v>52493</v>
+      </c>
+      <c r="G29" s="32">
+        <v>37469</v>
+      </c>
+      <c r="H29" s="32">
+        <v>26347</v>
+      </c>
+      <c r="I29" s="32">
+        <v>2904</v>
+      </c>
+      <c r="J29" s="34">
+        <v>168704</v>
       </c>
       <c r="L29"/>
     </row>
@@ -6421,32 +6449,32 @@
       <c r="A30" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="31">
-        <v>505.56499999994401</v>
-      </c>
-      <c r="C30" s="31">
-        <v>818.66570675104902</v>
-      </c>
-      <c r="D30" s="31">
-        <v>1556.0483237547801</v>
-      </c>
-      <c r="E30" s="31">
-        <v>1983.53078851142</v>
-      </c>
-      <c r="F30" s="31">
-        <v>2433.3368537562201</v>
-      </c>
-      <c r="G30" s="31">
-        <v>2545.29688211046</v>
-      </c>
-      <c r="H30" s="31">
-        <v>2590.2650705673</v>
-      </c>
-      <c r="I30" s="31">
-        <v>2297.14245283016</v>
-      </c>
-      <c r="J30" s="31">
-        <v>2303.8412029401702</v>
+      <c r="B30" s="32">
+        <v>2</v>
+      </c>
+      <c r="C30" s="32">
+        <v>948</v>
+      </c>
+      <c r="D30" s="32">
+        <v>16704</v>
+      </c>
+      <c r="E30" s="32">
+        <v>16956</v>
+      </c>
+      <c r="F30" s="32">
+        <v>36952</v>
+      </c>
+      <c r="G30" s="32">
+        <v>30325</v>
+      </c>
+      <c r="H30" s="32">
+        <v>25295</v>
+      </c>
+      <c r="I30" s="32">
+        <v>2332</v>
+      </c>
+      <c r="J30" s="34">
+        <v>129516</v>
       </c>
       <c r="L30"/>
     </row>
@@ -6454,32 +6482,32 @@
       <c r="A31" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="31">
-        <v>703.69000000041001</v>
-      </c>
-      <c r="C31" s="31">
-        <v>933.702057416299</v>
-      </c>
-      <c r="D31" s="31">
-        <v>1438.77297506317</v>
-      </c>
-      <c r="E31" s="31">
-        <v>1820.7309834876</v>
-      </c>
-      <c r="F31" s="31">
-        <v>2208.2359125575999</v>
-      </c>
-      <c r="G31" s="31">
-        <v>2329.6998845463299</v>
-      </c>
-      <c r="H31" s="31">
-        <v>2363.4150708478901</v>
-      </c>
-      <c r="I31" s="31">
-        <v>2275.22352380954</v>
-      </c>
-      <c r="J31" s="31">
-        <v>2111.7032118348102</v>
+      <c r="B31" s="32">
+        <v>1</v>
+      </c>
+      <c r="C31" s="32">
+        <v>209</v>
+      </c>
+      <c r="D31" s="32">
+        <v>6336</v>
+      </c>
+      <c r="E31" s="32">
+        <v>5511</v>
+      </c>
+      <c r="F31" s="32">
+        <v>13243</v>
+      </c>
+      <c r="G31" s="32">
+        <v>11693</v>
+      </c>
+      <c r="H31" s="32">
+        <v>8610</v>
+      </c>
+      <c r="I31" s="32">
+        <v>735</v>
+      </c>
+      <c r="J31" s="34">
+        <v>46338</v>
       </c>
       <c r="L31"/>
     </row>
@@ -6487,32 +6515,32 @@
       <c r="A32" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="31">
-        <v>584.73156250009197</v>
-      </c>
-      <c r="C32" s="31">
-        <v>828.83263338414599</v>
-      </c>
-      <c r="D32" s="31">
-        <v>1592.52465538194</v>
-      </c>
-      <c r="E32" s="31">
-        <v>2139.5264869955199</v>
-      </c>
-      <c r="F32" s="31">
-        <v>2804.39038783975</v>
-      </c>
-      <c r="G32" s="31">
-        <v>3140.2539011306899</v>
-      </c>
-      <c r="H32" s="31">
-        <v>3330.4326213140998</v>
-      </c>
-      <c r="I32" s="31">
-        <v>3402.99072095781</v>
-      </c>
-      <c r="J32" s="31">
-        <v>2696.86973125035</v>
+      <c r="B32" s="32">
+        <v>32</v>
+      </c>
+      <c r="C32" s="32">
+        <v>2624</v>
+      </c>
+      <c r="D32" s="32">
+        <v>57600</v>
+      </c>
+      <c r="E32" s="32">
+        <v>58403</v>
+      </c>
+      <c r="F32" s="32">
+        <v>127037</v>
+      </c>
+      <c r="G32" s="32">
+        <v>89856</v>
+      </c>
+      <c r="H32" s="32">
+        <v>66707</v>
+      </c>
+      <c r="I32" s="32">
+        <v>7601</v>
+      </c>
+      <c r="J32" s="34">
+        <v>409861</v>
       </c>
       <c r="L32"/>
     </row>
@@ -6520,32 +6548,32 @@
       <c r="A33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="31">
-        <v>444.25800000000697</v>
-      </c>
-      <c r="C33" s="31">
-        <v>924.95016279074696</v>
-      </c>
-      <c r="D33" s="31">
-        <v>1722.9178527654699</v>
-      </c>
-      <c r="E33" s="31">
-        <v>2310.8621590909202</v>
-      </c>
-      <c r="F33" s="31">
-        <v>2989.66175176253</v>
-      </c>
-      <c r="G33" s="31">
-        <v>3365.8636932791701</v>
-      </c>
-      <c r="H33" s="31">
-        <v>3324.5312389621099</v>
-      </c>
-      <c r="I33" s="31">
-        <v>3391.3390400000599</v>
-      </c>
-      <c r="J33" s="31">
-        <v>2839.7355402938701</v>
+      <c r="B33" s="32">
+        <v>5</v>
+      </c>
+      <c r="C33" s="32">
+        <v>860</v>
+      </c>
+      <c r="D33" s="32">
+        <v>13054</v>
+      </c>
+      <c r="E33" s="32">
+        <v>12320</v>
+      </c>
+      <c r="F33" s="32">
+        <v>26950</v>
+      </c>
+      <c r="G33" s="32">
+        <v>20429</v>
+      </c>
+      <c r="H33" s="32">
+        <v>14722</v>
+      </c>
+      <c r="I33" s="32">
+        <v>1500</v>
+      </c>
+      <c r="J33" s="34">
+        <v>89840</v>
       </c>
       <c r="L33"/>
     </row>
@@ -6553,32 +6581,32 @@
       <c r="A34" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="32">
         <v>0</v>
       </c>
-      <c r="C34" s="31">
-        <v>936.93835680748703</v>
-      </c>
-      <c r="D34" s="31">
-        <v>1552.0505705645201</v>
-      </c>
-      <c r="E34" s="31">
-        <v>1889.4529498960401</v>
-      </c>
-      <c r="F34" s="31">
-        <v>2270.2648732183102</v>
-      </c>
-      <c r="G34" s="31">
-        <v>2417.0062481841101</v>
-      </c>
-      <c r="H34" s="31">
-        <v>2498.5320030327598</v>
-      </c>
-      <c r="I34" s="31">
-        <v>2378.08025412393</v>
-      </c>
-      <c r="J34" s="31">
-        <v>2199.1851267648099</v>
+      <c r="C34" s="32">
+        <v>426</v>
+      </c>
+      <c r="D34" s="32">
+        <v>14880</v>
+      </c>
+      <c r="E34" s="32">
+        <v>14909</v>
+      </c>
+      <c r="F34" s="32">
+        <v>33325</v>
+      </c>
+      <c r="G34" s="32">
+        <v>26158</v>
+      </c>
+      <c r="H34" s="32">
+        <v>21103</v>
+      </c>
+      <c r="I34" s="32">
+        <v>2243</v>
+      </c>
+      <c r="J34" s="34">
+        <v>113044</v>
       </c>
       <c r="L34"/>
     </row>
@@ -6586,32 +6614,32 @@
       <c r="A35" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="31">
-        <v>837.29999999981396</v>
-      </c>
-      <c r="C35" s="31">
-        <v>852.42733333332296</v>
-      </c>
-      <c r="D35" s="31">
-        <v>1569.52442497262</v>
-      </c>
-      <c r="E35" s="31">
-        <v>2079.4570660194199</v>
-      </c>
-      <c r="F35" s="31">
-        <v>2562.0849033836798</v>
-      </c>
-      <c r="G35" s="31">
-        <v>2772.0168139108</v>
-      </c>
-      <c r="H35" s="31">
-        <v>2790.1618371929899</v>
-      </c>
-      <c r="I35" s="31">
-        <v>2526.8923032408102</v>
-      </c>
-      <c r="J35" s="31">
-        <v>2446.2251878888301</v>
+      <c r="B35" s="32">
+        <v>2</v>
+      </c>
+      <c r="C35" s="32">
+        <v>135</v>
+      </c>
+      <c r="D35" s="32">
+        <v>5478</v>
+      </c>
+      <c r="E35" s="32">
+        <v>5150</v>
+      </c>
+      <c r="F35" s="32">
+        <v>11851</v>
+      </c>
+      <c r="G35" s="32">
+        <v>9259</v>
+      </c>
+      <c r="H35" s="32">
+        <v>7125</v>
+      </c>
+      <c r="I35" s="32">
+        <v>864</v>
+      </c>
+      <c r="J35" s="34">
+        <v>39864</v>
       </c>
       <c r="L35"/>
     </row>
@@ -6619,32 +6647,32 @@
       <c r="A36" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="31">
-        <v>615.14222222225101</v>
-      </c>
-      <c r="C36" s="31">
-        <v>776.87871757926405</v>
-      </c>
-      <c r="D36" s="31">
-        <v>1641.17513934109</v>
-      </c>
-      <c r="E36" s="31">
-        <v>2315.8721069779899</v>
-      </c>
-      <c r="F36" s="31">
-        <v>3206.0606742851601</v>
-      </c>
-      <c r="G36" s="31">
-        <v>3750.3332199579399</v>
-      </c>
-      <c r="H36" s="31">
-        <v>3867.65345849801</v>
-      </c>
-      <c r="I36" s="31">
-        <v>3414.1594775888202</v>
-      </c>
-      <c r="J36" s="31">
-        <v>3089.1159835879298</v>
+      <c r="B36" s="32">
+        <v>9</v>
+      </c>
+      <c r="C36" s="32">
+        <v>1388</v>
+      </c>
+      <c r="D36" s="32">
+        <v>36242</v>
+      </c>
+      <c r="E36" s="32">
+        <v>36830</v>
+      </c>
+      <c r="F36" s="32">
+        <v>82606</v>
+      </c>
+      <c r="G36" s="32">
+        <v>62271</v>
+      </c>
+      <c r="H36" s="32">
+        <v>41492</v>
+      </c>
+      <c r="I36" s="32">
+        <v>3235</v>
+      </c>
+      <c r="J36" s="34">
+        <v>264074</v>
       </c>
       <c r="L36"/>
     </row>
@@ -6652,32 +6680,32 @@
       <c r="A37" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="31">
-        <v>764.638000000082</v>
-      </c>
-      <c r="C37" s="31">
-        <v>996.68128347493496</v>
-      </c>
-      <c r="D37" s="31">
-        <v>1607.12072944795</v>
-      </c>
-      <c r="E37" s="31">
-        <v>2065.4501877750099</v>
-      </c>
-      <c r="F37" s="31">
-        <v>2784.5363378491802</v>
-      </c>
-      <c r="G37" s="31">
-        <v>3253.5150963194101</v>
-      </c>
-      <c r="H37" s="31">
-        <v>3576.8831285732499</v>
-      </c>
-      <c r="I37" s="31">
-        <v>3738.4900831309001</v>
-      </c>
-      <c r="J37" s="31">
-        <v>2803.0784946387698</v>
+      <c r="B37" s="32">
+        <v>10</v>
+      </c>
+      <c r="C37" s="32">
+        <v>3062</v>
+      </c>
+      <c r="D37" s="32">
+        <v>50737</v>
+      </c>
+      <c r="E37" s="32">
+        <v>48409</v>
+      </c>
+      <c r="F37" s="32">
+        <v>110943</v>
+      </c>
+      <c r="G37" s="32">
+        <v>92349</v>
+      </c>
+      <c r="H37" s="32">
+        <v>71189</v>
+      </c>
+      <c r="I37" s="32">
+        <v>7819</v>
+      </c>
+      <c r="J37" s="34">
+        <v>384519</v>
       </c>
       <c r="L37"/>
     </row>
@@ -6685,32 +6713,32 @@
       <c r="A38" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="31">
-        <v>627.44749999989301</v>
-      </c>
-      <c r="C38" s="31">
-        <v>999.98881481476803</v>
-      </c>
-      <c r="D38" s="31">
-        <v>1648.3471792267201</v>
-      </c>
-      <c r="E38" s="31">
-        <v>2219.0717990285798</v>
-      </c>
-      <c r="F38" s="31">
-        <v>2941.6901170240299</v>
-      </c>
-      <c r="G38" s="31">
-        <v>3548.2852093472902</v>
-      </c>
-      <c r="H38" s="31">
-        <v>3913.1265391015299</v>
-      </c>
-      <c r="I38" s="31">
-        <v>3950.6887985435501</v>
-      </c>
-      <c r="J38" s="31">
-        <v>2977.0333980980899</v>
+      <c r="B38" s="32">
+        <v>12</v>
+      </c>
+      <c r="C38" s="32">
+        <v>1080</v>
+      </c>
+      <c r="D38" s="32">
+        <v>15751</v>
+      </c>
+      <c r="E38" s="32">
+        <v>15853</v>
+      </c>
+      <c r="F38" s="32">
+        <v>35121</v>
+      </c>
+      <c r="G38" s="32">
+        <v>26917</v>
+      </c>
+      <c r="H38" s="32">
+        <v>19833</v>
+      </c>
+      <c r="I38" s="32">
+        <v>2472</v>
+      </c>
+      <c r="J38" s="34">
+        <v>117039</v>
       </c>
       <c r="L38"/>
     </row>
@@ -6718,32 +6746,32 @@
       <c r="A39" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="31">
-        <v>660.88343750000502</v>
-      </c>
-      <c r="C39" s="31">
-        <v>860.30689716860297</v>
-      </c>
-      <c r="D39" s="31">
-        <v>1663.56295272788</v>
-      </c>
-      <c r="E39" s="31">
-        <v>2653.83225221669</v>
-      </c>
-      <c r="F39" s="31">
-        <v>3819.0002995906898</v>
-      </c>
-      <c r="G39" s="31">
-        <v>4415.8361528799096</v>
-      </c>
-      <c r="H39" s="31">
-        <v>4423.8038910819996</v>
-      </c>
-      <c r="I39" s="31">
-        <v>4571.2812916213597</v>
-      </c>
-      <c r="J39" s="31">
-        <v>3604.3652013966398</v>
+      <c r="B39" s="32">
+        <v>192</v>
+      </c>
+      <c r="C39" s="32">
+        <v>32422</v>
+      </c>
+      <c r="D39" s="32">
+        <v>1015969</v>
+      </c>
+      <c r="E39" s="32">
+        <v>1015928</v>
+      </c>
+      <c r="F39" s="32">
+        <v>2295532</v>
+      </c>
+      <c r="G39" s="32">
+        <v>1729920</v>
+      </c>
+      <c r="H39" s="32">
+        <v>1243045</v>
+      </c>
+      <c r="I39" s="32">
+        <v>115746</v>
+      </c>
+      <c r="J39" s="34">
+        <v>7448759</v>
       </c>
       <c r="L39"/>
     </row>
@@ -6751,32 +6779,32 @@
       <c r="A40" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="31">
-        <v>852.57000000011203</v>
-      </c>
-      <c r="C40" s="31">
-        <v>928.81001386000401</v>
-      </c>
-      <c r="D40" s="31">
-        <v>1642.98045565195</v>
-      </c>
-      <c r="E40" s="31">
-        <v>2138.7161197482901</v>
-      </c>
-      <c r="F40" s="31">
-        <v>2679.51102984728</v>
-      </c>
-      <c r="G40" s="31">
-        <v>2851.0034739676798</v>
-      </c>
-      <c r="H40" s="31">
-        <v>2871.6318393207998</v>
-      </c>
-      <c r="I40" s="31">
-        <v>2778.3036085252102</v>
-      </c>
-      <c r="J40" s="31">
-        <v>2519.2421714225702</v>
+      <c r="B40" s="32">
+        <v>5</v>
+      </c>
+      <c r="C40" s="32">
+        <v>1443</v>
+      </c>
+      <c r="D40" s="32">
+        <v>32042</v>
+      </c>
+      <c r="E40" s="32">
+        <v>32418</v>
+      </c>
+      <c r="F40" s="32">
+        <v>68884</v>
+      </c>
+      <c r="G40" s="32">
+        <v>50130</v>
+      </c>
+      <c r="H40" s="32">
+        <v>39694</v>
+      </c>
+      <c r="I40" s="32">
+        <v>4082</v>
+      </c>
+      <c r="J40" s="34">
+        <v>228698</v>
       </c>
       <c r="L40"/>
     </row>
@@ -6784,32 +6812,32 @@
       <c r="A41" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="31">
-        <v>733.374074074026</v>
-      </c>
-      <c r="C41" s="31">
-        <v>989.98719725825197</v>
-      </c>
-      <c r="D41" s="31">
-        <v>1654.6401298227699</v>
-      </c>
-      <c r="E41" s="31">
-        <v>2256.9161969873298</v>
-      </c>
-      <c r="F41" s="31">
-        <v>3018.39525212128</v>
-      </c>
-      <c r="G41" s="31">
-        <v>3359.7959094065</v>
-      </c>
-      <c r="H41" s="31">
-        <v>3253.59714859122</v>
-      </c>
-      <c r="I41" s="31">
-        <v>2718.6640808154598</v>
-      </c>
-      <c r="J41" s="31">
-        <v>2787.28185709013</v>
+      <c r="B41" s="32">
+        <v>27</v>
+      </c>
+      <c r="C41" s="32">
+        <v>2626</v>
+      </c>
+      <c r="D41" s="32">
+        <v>68555</v>
+      </c>
+      <c r="E41" s="32">
+        <v>61872</v>
+      </c>
+      <c r="F41" s="32">
+        <v>131524</v>
+      </c>
+      <c r="G41" s="32">
+        <v>96497</v>
+      </c>
+      <c r="H41" s="32">
+        <v>64277</v>
+      </c>
+      <c r="I41" s="32">
+        <v>5494</v>
+      </c>
+      <c r="J41" s="34">
+        <v>430873</v>
       </c>
       <c r="L41"/>
     </row>
@@ -6817,32 +6845,32 @@
       <c r="A42" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="31">
-        <v>583.35099999997794</v>
-      </c>
-      <c r="C42" s="31">
-        <v>720.37081653230598</v>
-      </c>
-      <c r="D42" s="31">
-        <v>1553.4399191986399</v>
-      </c>
-      <c r="E42" s="31">
-        <v>2104.065650474</v>
-      </c>
-      <c r="F42" s="31">
-        <v>2894.7176230935402</v>
-      </c>
-      <c r="G42" s="31">
-        <v>3249.9573389406</v>
-      </c>
-      <c r="H42" s="31">
-        <v>3097.1317355444799</v>
-      </c>
-      <c r="I42" s="31">
-        <v>2691.4059081935202</v>
-      </c>
-      <c r="J42" s="31">
-        <v>2714.6068168459601</v>
+      <c r="B42" s="32">
+        <v>10</v>
+      </c>
+      <c r="C42" s="32">
+        <v>992</v>
+      </c>
+      <c r="D42" s="32">
+        <v>18069</v>
+      </c>
+      <c r="E42" s="32">
+        <v>18671</v>
+      </c>
+      <c r="F42" s="32">
+        <v>43077</v>
+      </c>
+      <c r="G42" s="32">
+        <v>33528</v>
+      </c>
+      <c r="H42" s="32">
+        <v>22794</v>
+      </c>
+      <c r="I42" s="32">
+        <v>2026</v>
+      </c>
+      <c r="J42" s="34">
+        <v>139167</v>
       </c>
       <c r="L42"/>
     </row>
@@ -6850,32 +6878,32 @@
       <c r="A43" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="31">
-        <v>499</v>
-      </c>
-      <c r="C43" s="31">
-        <v>974.95131964809605</v>
-      </c>
-      <c r="D43" s="31">
-        <v>1510.6321063867599</v>
-      </c>
-      <c r="E43" s="31">
-        <v>1883.40346581875</v>
-      </c>
-      <c r="F43" s="31">
-        <v>2278.5973738001999</v>
-      </c>
-      <c r="G43" s="31">
-        <v>2386.55383005979</v>
-      </c>
-      <c r="H43" s="31">
-        <v>2242.12206062118</v>
-      </c>
-      <c r="I43" s="31">
-        <v>2314.3472571428802</v>
-      </c>
-      <c r="J43" s="31">
-        <v>2130.3857768835801</v>
+      <c r="B43" s="32">
+        <v>1</v>
+      </c>
+      <c r="C43" s="32">
+        <v>341</v>
+      </c>
+      <c r="D43" s="32">
+        <v>5621</v>
+      </c>
+      <c r="E43" s="32">
+        <v>5032</v>
+      </c>
+      <c r="F43" s="32">
+        <v>11252</v>
+      </c>
+      <c r="G43" s="32">
+        <v>9368</v>
+      </c>
+      <c r="H43" s="32">
+        <v>8017</v>
+      </c>
+      <c r="I43" s="32">
+        <v>875</v>
+      </c>
+      <c r="J43" s="34">
+        <v>40508</v>
       </c>
       <c r="L43"/>
     </row>
@@ -6883,32 +6911,32 @@
       <c r="A44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="31">
-        <v>500.168333333335</v>
-      </c>
-      <c r="C44" s="31">
-        <v>801.13605015675398</v>
-      </c>
-      <c r="D44" s="31">
-        <v>1498.5352884185199</v>
-      </c>
-      <c r="E44" s="31">
-        <v>1977.7293893910801</v>
-      </c>
-      <c r="F44" s="31">
-        <v>2486.9641856296598</v>
-      </c>
-      <c r="G44" s="31">
-        <v>2545.6398775596099</v>
-      </c>
-      <c r="H44" s="31">
-        <v>2449.2461937847102</v>
-      </c>
-      <c r="I44" s="31">
-        <v>1925.87644986446</v>
-      </c>
-      <c r="J44" s="31">
-        <v>2251.3350979185002</v>
+      <c r="B44" s="32">
+        <v>12</v>
+      </c>
+      <c r="C44" s="32">
+        <v>319</v>
+      </c>
+      <c r="D44" s="32">
+        <v>6709</v>
+      </c>
+      <c r="E44" s="32">
+        <v>5863</v>
+      </c>
+      <c r="F44" s="32">
+        <v>12832</v>
+      </c>
+      <c r="G44" s="32">
+        <v>9474</v>
+      </c>
+      <c r="H44" s="32">
+        <v>7916</v>
+      </c>
+      <c r="I44" s="32">
+        <v>738</v>
+      </c>
+      <c r="J44" s="34">
+        <v>43863</v>
       </c>
       <c r="L44"/>
     </row>
